--- a/randomPlanarGraph/data/FFP_n20_no1.xlsx
+++ b/randomPlanarGraph/data/FFP_n20_no1.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E113"/>
+  <dimension ref="A1:E129"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,13 +470,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C2" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D2" t="n">
-        <v>52.00961449578337</v>
+        <v>152.7612516314265</v>
       </c>
       <c r="E2" t="n">
         <v>5</v>
@@ -487,13 +487,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
+        <v>17</v>
+      </c>
+      <c r="C3" t="n">
         <v>13</v>
       </c>
-      <c r="C3" t="n">
-        <v>5</v>
-      </c>
       <c r="D3" t="n">
-        <v>52.00961449578337</v>
+        <v>152.7612516314265</v>
       </c>
       <c r="E3" t="n">
         <v>5</v>
@@ -504,16 +504,16 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>199.2510978639766</v>
+        <v>138.0796871375366</v>
       </c>
       <c r="E4" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5">
@@ -521,16 +521,16 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>199.2510978639766</v>
+        <v>138.0796871375366</v>
       </c>
       <c r="E5" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6">
@@ -538,16 +538,16 @@
         <v>1</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D6" t="n">
-        <v>249.3030284613486</v>
+        <v>143.8401890988746</v>
       </c>
       <c r="E6" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -555,16 +555,16 @@
         <v>1</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
-        <v>249.3030284613486</v>
+        <v>143.8401890988746</v>
       </c>
       <c r="E7" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -572,16 +572,16 @@
         <v>1</v>
       </c>
       <c r="B8" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C8" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D8" t="n">
-        <v>94.87360012142472</v>
+        <v>761.4440228933444</v>
       </c>
       <c r="E8" t="n">
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9">
@@ -589,16 +589,16 @@
         <v>1</v>
       </c>
       <c r="B9" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D9" t="n">
-        <v>94.87360012142472</v>
+        <v>761.4440228933444</v>
       </c>
       <c r="E9" t="n">
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10">
@@ -606,16 +606,16 @@
         <v>1</v>
       </c>
       <c r="B10" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C10" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D10" t="n">
-        <v>988.0045546453721</v>
+        <v>312.5699921617557</v>
       </c>
       <c r="E10" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11">
@@ -623,16 +623,16 @@
         <v>1</v>
       </c>
       <c r="B11" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C11" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
-        <v>988.0045546453721</v>
+        <v>312.5699921617557</v>
       </c>
       <c r="E11" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12">
@@ -640,16 +640,16 @@
         <v>1</v>
       </c>
       <c r="B12" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D12" t="n">
-        <v>367.5391135648014</v>
+        <v>217.1865557533431</v>
       </c>
       <c r="E12" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13">
@@ -657,16 +657,16 @@
         <v>1</v>
       </c>
       <c r="B13" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C13" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>367.5391135648014</v>
+        <v>217.1865557533431</v>
       </c>
       <c r="E13" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14">
@@ -680,10 +680,10 @@
         <v>20</v>
       </c>
       <c r="D14" t="n">
-        <v>249.7298540423231</v>
+        <v>216.3931607052312</v>
       </c>
       <c r="E14" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15">
@@ -697,10 +697,10 @@
         <v>6</v>
       </c>
       <c r="D15" t="n">
-        <v>249.7298540423231</v>
+        <v>216.3931607052312</v>
       </c>
       <c r="E15" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16">
@@ -711,13 +711,13 @@
         <v>9</v>
       </c>
       <c r="C16" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D16" t="n">
-        <v>463.9709042601702</v>
+        <v>119.3691752505646</v>
       </c>
       <c r="E16" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17">
@@ -725,16 +725,16 @@
         <v>1</v>
       </c>
       <c r="B17" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C17" t="n">
         <v>9</v>
       </c>
       <c r="D17" t="n">
-        <v>463.9709042601702</v>
+        <v>119.3691752505646</v>
       </c>
       <c r="E17" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18">
@@ -742,16 +742,16 @@
         <v>1</v>
       </c>
       <c r="B18" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C18" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D18" t="n">
-        <v>327.6659884699662</v>
+        <v>249.4674327442362</v>
       </c>
       <c r="E18" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19">
@@ -759,16 +759,16 @@
         <v>1</v>
       </c>
       <c r="B19" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C19" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="n">
-        <v>327.6659884699662</v>
+        <v>249.4674327442362</v>
       </c>
       <c r="E19" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20">
@@ -776,16 +776,16 @@
         <v>1</v>
       </c>
       <c r="B20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="D20" t="n">
-        <v>129.8653148458048</v>
+        <v>591.8124702978132</v>
       </c>
       <c r="E20" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21">
@@ -793,16 +793,16 @@
         <v>1</v>
       </c>
       <c r="B21" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D21" t="n">
-        <v>129.8653148458048</v>
+        <v>591.8124702978132</v>
       </c>
       <c r="E21" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22">
@@ -813,13 +813,13 @@
         <v>3</v>
       </c>
       <c r="C22" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D22" t="n">
-        <v>207.5620389184882</v>
+        <v>159.0880259479009</v>
       </c>
       <c r="E22" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23">
@@ -827,16 +827,16 @@
         <v>1</v>
       </c>
       <c r="B23" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C23" t="n">
         <v>3</v>
       </c>
       <c r="D23" t="n">
-        <v>207.5620389184882</v>
+        <v>159.0880259479009</v>
       </c>
       <c r="E23" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24">
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="B24" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C24" t="n">
+        <v>19</v>
+      </c>
+      <c r="D24" t="n">
+        <v>196.084165602427</v>
+      </c>
+      <c r="E24" t="n">
         <v>10</v>
-      </c>
-      <c r="D24" t="n">
-        <v>577.0615218501404</v>
-      </c>
-      <c r="E24" t="n">
-        <v>21</v>
       </c>
     </row>
     <row r="25">
@@ -861,16 +861,16 @@
         <v>1</v>
       </c>
       <c r="B25" t="n">
+        <v>19</v>
+      </c>
+      <c r="C25" t="n">
+        <v>11</v>
+      </c>
+      <c r="D25" t="n">
+        <v>196.084165602427</v>
+      </c>
+      <c r="E25" t="n">
         <v>10</v>
-      </c>
-      <c r="C25" t="n">
-        <v>2</v>
-      </c>
-      <c r="D25" t="n">
-        <v>577.0615218501404</v>
-      </c>
-      <c r="E25" t="n">
-        <v>21</v>
       </c>
     </row>
     <row r="26">
@@ -878,16 +878,16 @@
         <v>1</v>
       </c>
       <c r="B26" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C26" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D26" t="n">
-        <v>149.164338901763</v>
+        <v>242.4396832203837</v>
       </c>
       <c r="E26" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27">
@@ -895,16 +895,16 @@
         <v>1</v>
       </c>
       <c r="B27" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C27" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
-        <v>149.164338901763</v>
+        <v>242.4396832203837</v>
       </c>
       <c r="E27" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28">
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="B28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C28" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D28" t="n">
-        <v>100.9752444909147</v>
+        <v>283.0989226401259</v>
       </c>
       <c r="E28" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29">
@@ -929,16 +929,16 @@
         <v>1</v>
       </c>
       <c r="B29" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
-        <v>100.9752444909147</v>
+        <v>283.0989226401259</v>
       </c>
       <c r="E29" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30">
@@ -952,10 +952,10 @@
         <v>11</v>
       </c>
       <c r="D30" t="n">
-        <v>74.46475676452586</v>
+        <v>449.0211576306845</v>
       </c>
       <c r="E30" t="n">
-        <v>8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31">
@@ -969,10 +969,10 @@
         <v>8</v>
       </c>
       <c r="D31" t="n">
-        <v>74.46475676452586</v>
+        <v>449.0211576306845</v>
       </c>
       <c r="E31" t="n">
-        <v>8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32">
@@ -980,16 +980,16 @@
         <v>1</v>
       </c>
       <c r="B32" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C32" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D32" t="n">
-        <v>192.379832622861</v>
+        <v>200.4220546746291</v>
       </c>
       <c r="E32" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33">
@@ -997,16 +997,16 @@
         <v>1</v>
       </c>
       <c r="B33" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C33" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D33" t="n">
-        <v>192.379832622861</v>
+        <v>200.4220546746291</v>
       </c>
       <c r="E33" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34">
@@ -1014,16 +1014,16 @@
         <v>1</v>
       </c>
       <c r="B34" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C34" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D34" t="n">
-        <v>266.7601919327545</v>
+        <v>184.4478246008881</v>
       </c>
       <c r="E34" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35">
@@ -1031,16 +1031,16 @@
         <v>1</v>
       </c>
       <c r="B35" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C35" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
-        <v>266.7601919327545</v>
+        <v>184.4478246008881</v>
       </c>
       <c r="E35" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36">
@@ -1048,16 +1048,16 @@
         <v>1</v>
       </c>
       <c r="B36" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C36" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D36" t="n">
-        <v>464.5212589322473</v>
+        <v>117.8855377050128</v>
       </c>
       <c r="E36" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37">
@@ -1065,16 +1065,16 @@
         <v>1</v>
       </c>
       <c r="B37" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D37" t="n">
-        <v>464.5212589322473</v>
+        <v>117.8855377050128</v>
       </c>
       <c r="E37" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38">
@@ -1082,16 +1082,16 @@
         <v>1</v>
       </c>
       <c r="B38" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C38" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D38" t="n">
-        <v>141.8731828077456</v>
+        <v>243.1481030154256</v>
       </c>
       <c r="E38" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39">
@@ -1099,16 +1099,16 @@
         <v>1</v>
       </c>
       <c r="B39" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C39" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
-        <v>141.8731828077456</v>
+        <v>243.1481030154256</v>
       </c>
       <c r="E39" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40">
@@ -1116,16 +1116,16 @@
         <v>1</v>
       </c>
       <c r="B40" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C40" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D40" t="n">
-        <v>228.5607140345865</v>
+        <v>224.3613157386986</v>
       </c>
       <c r="E40" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="41">
@@ -1133,16 +1133,16 @@
         <v>1</v>
       </c>
       <c r="B41" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C41" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D41" t="n">
-        <v>228.5607140345865</v>
+        <v>224.3613157386986</v>
       </c>
       <c r="E41" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="42">
@@ -1150,16 +1150,16 @@
         <v>1</v>
       </c>
       <c r="B42" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
-        <v>66.37017402418047</v>
+        <v>330.5782811982663</v>
       </c>
       <c r="E42" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="43">
@@ -1167,16 +1167,16 @@
         <v>1</v>
       </c>
       <c r="B43" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D43" t="n">
-        <v>66.37017402418047</v>
+        <v>330.5782811982663</v>
       </c>
       <c r="E43" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="44">
@@ -1184,16 +1184,16 @@
         <v>1</v>
       </c>
       <c r="B44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C44" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
-        <v>295.296461204668</v>
+        <v>82.97590011563598</v>
       </c>
       <c r="E44" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45">
@@ -1201,16 +1201,16 @@
         <v>1</v>
       </c>
       <c r="B45" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="C45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
-        <v>295.296461204668</v>
+        <v>82.97590011563598</v>
       </c>
       <c r="E45" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="46">
@@ -1218,16 +1218,16 @@
         <v>1</v>
       </c>
       <c r="B46" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C46" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D46" t="n">
-        <v>236.7804890610711</v>
+        <v>105.6834897228512</v>
       </c>
       <c r="E46" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="47">
@@ -1235,16 +1235,16 @@
         <v>1</v>
       </c>
       <c r="B47" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D47" t="n">
-        <v>236.7804890610711</v>
+        <v>105.6834897228512</v>
       </c>
       <c r="E47" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48">
@@ -1255,13 +1255,13 @@
         <v>2</v>
       </c>
       <c r="C48" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D48" t="n">
-        <v>129.2826361117378</v>
+        <v>134.937022347464</v>
       </c>
       <c r="E48" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49">
@@ -1269,16 +1269,16 @@
         <v>1</v>
       </c>
       <c r="B49" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C49" t="n">
         <v>2</v>
       </c>
       <c r="D49" t="n">
-        <v>129.2826361117378</v>
+        <v>134.937022347464</v>
       </c>
       <c r="E49" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50">
@@ -1286,16 +1286,16 @@
         <v>1</v>
       </c>
       <c r="B50" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C50" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D50" t="n">
-        <v>487.0995791416782</v>
+        <v>264.7413832403238</v>
       </c>
       <c r="E50" t="n">
-        <v>23</v>
+        <v>5</v>
       </c>
     </row>
     <row r="51">
@@ -1303,16 +1303,16 @@
         <v>1</v>
       </c>
       <c r="B51" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C51" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D51" t="n">
-        <v>487.0995791416782</v>
+        <v>264.7413832403238</v>
       </c>
       <c r="E51" t="n">
-        <v>23</v>
+        <v>5</v>
       </c>
     </row>
     <row r="52">
@@ -1320,13 +1320,13 @@
         <v>1</v>
       </c>
       <c r="B52" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C52" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D52" t="n">
-        <v>118.6086000254619</v>
+        <v>96.21330469326995</v>
       </c>
       <c r="E52" t="n">
         <v>8</v>
@@ -1337,13 +1337,13 @@
         <v>1</v>
       </c>
       <c r="B53" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D53" t="n">
-        <v>118.6086000254619</v>
+        <v>96.21330469326995</v>
       </c>
       <c r="E53" t="n">
         <v>8</v>
@@ -1354,16 +1354,16 @@
         <v>1</v>
       </c>
       <c r="B54" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C54" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D54" t="n">
-        <v>144.5164350515193</v>
+        <v>135.7239846158371</v>
       </c>
       <c r="E54" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="55">
@@ -1371,16 +1371,16 @@
         <v>1</v>
       </c>
       <c r="B55" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C55" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D55" t="n">
-        <v>144.5164350515193</v>
+        <v>135.7239846158371</v>
       </c>
       <c r="E55" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="56">
@@ -1388,16 +1388,16 @@
         <v>1</v>
       </c>
       <c r="B56" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C56" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D56" t="n">
-        <v>674.2966706131656</v>
+        <v>42.94182110716778</v>
       </c>
       <c r="E56" t="n">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="57">
@@ -1405,152 +1405,152 @@
         <v>1</v>
       </c>
       <c r="B57" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C57" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
-        <v>674.2966706131656</v>
+        <v>42.94182110716778</v>
       </c>
       <c r="E57" t="n">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B58" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C58" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D58" t="n">
-        <v>52.00961449578337</v>
+        <v>457.5947989214912</v>
       </c>
       <c r="E58" t="n">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B59" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D59" t="n">
-        <v>52.00961449578337</v>
+        <v>457.5947989214912</v>
       </c>
       <c r="E59" t="n">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B60" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C60" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D60" t="n">
-        <v>199.2510978639766</v>
+        <v>98.00510190801293</v>
       </c>
       <c r="E60" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B61" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C61" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D61" t="n">
-        <v>199.2510978639766</v>
+        <v>98.00510190801293</v>
       </c>
       <c r="E61" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B62" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D62" t="n">
-        <v>249.3030284613486</v>
+        <v>267.4864482548602</v>
       </c>
       <c r="E62" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B63" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C63" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D63" t="n">
-        <v>249.3030284613486</v>
+        <v>267.4864482548602</v>
       </c>
       <c r="E63" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B64" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C64" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D64" t="n">
-        <v>94.87360012142472</v>
+        <v>52.80151512977634</v>
       </c>
       <c r="E64" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B65" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D65" t="n">
-        <v>94.87360012142472</v>
+        <v>52.80151512977634</v>
       </c>
       <c r="E65" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="66">
@@ -1558,16 +1558,16 @@
         <v>2</v>
       </c>
       <c r="B66" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C66" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D66" t="n">
-        <v>988.0045546453721</v>
+        <v>152.7612516314265</v>
       </c>
       <c r="E66" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67">
@@ -1575,16 +1575,16 @@
         <v>2</v>
       </c>
       <c r="B67" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C67" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D67" t="n">
-        <v>988.0045546453721</v>
+        <v>152.7612516314265</v>
       </c>
       <c r="E67" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68">
@@ -1592,16 +1592,16 @@
         <v>2</v>
       </c>
       <c r="B68" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C68" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D68" t="n">
-        <v>367.5391135648014</v>
+        <v>138.0796871375366</v>
       </c>
       <c r="E68" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="69">
@@ -1609,16 +1609,16 @@
         <v>2</v>
       </c>
       <c r="B69" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C69" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
-        <v>367.5391135648014</v>
+        <v>138.0796871375366</v>
       </c>
       <c r="E69" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="70">
@@ -1626,16 +1626,16 @@
         <v>2</v>
       </c>
       <c r="B70" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C70" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D70" t="n">
-        <v>249.7298540423231</v>
+        <v>143.8401890988746</v>
       </c>
       <c r="E70" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71">
@@ -1643,16 +1643,16 @@
         <v>2</v>
       </c>
       <c r="B71" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C71" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
-        <v>249.7298540423231</v>
+        <v>143.8401890988746</v>
       </c>
       <c r="E71" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72">
@@ -1660,13 +1660,13 @@
         <v>2</v>
       </c>
       <c r="B72" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C72" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D72" t="n">
-        <v>463.9709042601702</v>
+        <v>761.4440228933444</v>
       </c>
       <c r="E72" t="n">
         <v>23</v>
@@ -1677,13 +1677,13 @@
         <v>2</v>
       </c>
       <c r="B73" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C73" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D73" t="n">
-        <v>463.9709042601702</v>
+        <v>761.4440228933444</v>
       </c>
       <c r="E73" t="n">
         <v>23</v>
@@ -1694,16 +1694,16 @@
         <v>2</v>
       </c>
       <c r="B74" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C74" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D74" t="n">
-        <v>327.6659884699662</v>
+        <v>312.5699921617557</v>
       </c>
       <c r="E74" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="75">
@@ -1711,16 +1711,16 @@
         <v>2</v>
       </c>
       <c r="B75" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C75" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
-        <v>327.6659884699662</v>
+        <v>312.5699921617557</v>
       </c>
       <c r="E75" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="76">
@@ -1728,16 +1728,16 @@
         <v>2</v>
       </c>
       <c r="B76" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D76" t="n">
-        <v>129.8653148458048</v>
+        <v>217.1865557533431</v>
       </c>
       <c r="E76" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="77">
@@ -1745,16 +1745,16 @@
         <v>2</v>
       </c>
       <c r="B77" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D77" t="n">
-        <v>129.8653148458048</v>
+        <v>217.1865557533431</v>
       </c>
       <c r="E77" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="78">
@@ -1762,16 +1762,16 @@
         <v>2</v>
       </c>
       <c r="B78" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C78" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D78" t="n">
-        <v>207.5620389184882</v>
+        <v>216.3931607052312</v>
       </c>
       <c r="E78" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="79">
@@ -1779,16 +1779,16 @@
         <v>2</v>
       </c>
       <c r="B79" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D79" t="n">
-        <v>207.5620389184882</v>
+        <v>216.3931607052312</v>
       </c>
       <c r="E79" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="80">
@@ -1796,16 +1796,16 @@
         <v>2</v>
       </c>
       <c r="B80" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C80" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D80" t="n">
-        <v>577.0615218501404</v>
+        <v>119.3691752505646</v>
       </c>
       <c r="E80" t="n">
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row r="81">
@@ -1813,16 +1813,16 @@
         <v>2</v>
       </c>
       <c r="B81" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D81" t="n">
-        <v>577.0615218501404</v>
+        <v>119.3691752505646</v>
       </c>
       <c r="E81" t="n">
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row r="82">
@@ -1830,16 +1830,16 @@
         <v>2</v>
       </c>
       <c r="B82" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C82" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D82" t="n">
-        <v>149.164338901763</v>
+        <v>249.4674327442362</v>
       </c>
       <c r="E82" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="83">
@@ -1847,16 +1847,16 @@
         <v>2</v>
       </c>
       <c r="B83" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C83" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D83" t="n">
-        <v>149.164338901763</v>
+        <v>249.4674327442362</v>
       </c>
       <c r="E83" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="84">
@@ -1864,16 +1864,16 @@
         <v>2</v>
       </c>
       <c r="B84" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C84" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D84" t="n">
-        <v>100.9752444909147</v>
+        <v>591.8124702978132</v>
       </c>
       <c r="E84" t="n">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="85">
@@ -1881,16 +1881,16 @@
         <v>2</v>
       </c>
       <c r="B85" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D85" t="n">
-        <v>100.9752444909147</v>
+        <v>591.8124702978132</v>
       </c>
       <c r="E85" t="n">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="86">
@@ -1898,16 +1898,16 @@
         <v>2</v>
       </c>
       <c r="B86" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C86" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D86" t="n">
-        <v>74.46475676452586</v>
+        <v>159.0880259479009</v>
       </c>
       <c r="E86" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="87">
@@ -1915,16 +1915,16 @@
         <v>2</v>
       </c>
       <c r="B87" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C87" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
-        <v>74.46475676452586</v>
+        <v>159.0880259479009</v>
       </c>
       <c r="E87" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="88">
@@ -1932,16 +1932,16 @@
         <v>2</v>
       </c>
       <c r="B88" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C88" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D88" t="n">
-        <v>192.379832622861</v>
+        <v>196.084165602427</v>
       </c>
       <c r="E88" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="89">
@@ -1949,16 +1949,16 @@
         <v>2</v>
       </c>
       <c r="B89" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C89" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D89" t="n">
-        <v>192.379832622861</v>
+        <v>196.084165602427</v>
       </c>
       <c r="E89" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="90">
@@ -1966,16 +1966,16 @@
         <v>2</v>
       </c>
       <c r="B90" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C90" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D90" t="n">
-        <v>266.7601919327545</v>
+        <v>242.4396832203837</v>
       </c>
       <c r="E90" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="91">
@@ -1983,16 +1983,16 @@
         <v>2</v>
       </c>
       <c r="B91" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C91" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
-        <v>266.7601919327545</v>
+        <v>242.4396832203837</v>
       </c>
       <c r="E91" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="92">
@@ -2000,16 +2000,16 @@
         <v>2</v>
       </c>
       <c r="B92" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C92" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D92" t="n">
-        <v>464.5212589322473</v>
+        <v>283.0989226401259</v>
       </c>
       <c r="E92" t="n">
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row r="93">
@@ -2017,16 +2017,16 @@
         <v>2</v>
       </c>
       <c r="B93" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
-        <v>464.5212589322473</v>
+        <v>283.0989226401259</v>
       </c>
       <c r="E93" t="n">
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row r="94">
@@ -2034,16 +2034,16 @@
         <v>2</v>
       </c>
       <c r="B94" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C94" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D94" t="n">
-        <v>141.8731828077456</v>
+        <v>449.0211576306845</v>
       </c>
       <c r="E94" t="n">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="95">
@@ -2051,16 +2051,16 @@
         <v>2</v>
       </c>
       <c r="B95" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C95" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D95" t="n">
-        <v>141.8731828077456</v>
+        <v>449.0211576306845</v>
       </c>
       <c r="E95" t="n">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="96">
@@ -2068,16 +2068,16 @@
         <v>2</v>
       </c>
       <c r="B96" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C96" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D96" t="n">
-        <v>228.5607140345865</v>
+        <v>200.4220546746291</v>
       </c>
       <c r="E96" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="97">
@@ -2085,16 +2085,16 @@
         <v>2</v>
       </c>
       <c r="B97" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C97" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D97" t="n">
-        <v>228.5607140345865</v>
+        <v>200.4220546746291</v>
       </c>
       <c r="E97" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="98">
@@ -2102,16 +2102,16 @@
         <v>2</v>
       </c>
       <c r="B98" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C98" t="n">
+        <v>6</v>
+      </c>
+      <c r="D98" t="n">
+        <v>184.4478246008881</v>
+      </c>
+      <c r="E98" t="n">
         <v>12</v>
-      </c>
-      <c r="D98" t="n">
-        <v>66.37017402418047</v>
-      </c>
-      <c r="E98" t="n">
-        <v>7</v>
       </c>
     </row>
     <row r="99">
@@ -2119,16 +2119,16 @@
         <v>2</v>
       </c>
       <c r="B99" t="n">
+        <v>6</v>
+      </c>
+      <c r="C99" t="n">
+        <v>5</v>
+      </c>
+      <c r="D99" t="n">
+        <v>184.4478246008881</v>
+      </c>
+      <c r="E99" t="n">
         <v>12</v>
-      </c>
-      <c r="C99" t="n">
-        <v>11</v>
-      </c>
-      <c r="D99" t="n">
-        <v>66.37017402418047</v>
-      </c>
-      <c r="E99" t="n">
-        <v>7</v>
       </c>
     </row>
     <row r="100">
@@ -2136,16 +2136,16 @@
         <v>2</v>
       </c>
       <c r="B100" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C100" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D100" t="n">
-        <v>295.296461204668</v>
+        <v>117.8855377050128</v>
       </c>
       <c r="E100" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="101">
@@ -2153,16 +2153,16 @@
         <v>2</v>
       </c>
       <c r="B101" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="C101" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D101" t="n">
-        <v>295.296461204668</v>
+        <v>117.8855377050128</v>
       </c>
       <c r="E101" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="102">
@@ -2170,16 +2170,16 @@
         <v>2</v>
       </c>
       <c r="B102" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C102" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D102" t="n">
-        <v>236.7804890610711</v>
+        <v>243.1481030154256</v>
       </c>
       <c r="E102" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="103">
@@ -2187,16 +2187,16 @@
         <v>2</v>
       </c>
       <c r="B103" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C103" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D103" t="n">
-        <v>236.7804890610711</v>
+        <v>243.1481030154256</v>
       </c>
       <c r="E103" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="104">
@@ -2204,16 +2204,16 @@
         <v>2</v>
       </c>
       <c r="B104" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="C104" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D104" t="n">
-        <v>129.2826361117378</v>
+        <v>224.3613157386986</v>
       </c>
       <c r="E104" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="105">
@@ -2221,16 +2221,16 @@
         <v>2</v>
       </c>
       <c r="B105" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C105" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D105" t="n">
-        <v>129.2826361117378</v>
+        <v>224.3613157386986</v>
       </c>
       <c r="E105" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="106">
@@ -2238,16 +2238,16 @@
         <v>2</v>
       </c>
       <c r="B106" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C106" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="D106" t="n">
-        <v>487.0995791416782</v>
+        <v>330.5782811982663</v>
       </c>
       <c r="E106" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="107">
@@ -2255,16 +2255,16 @@
         <v>2</v>
       </c>
       <c r="B107" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="C107" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D107" t="n">
-        <v>487.0995791416782</v>
+        <v>330.5782811982663</v>
       </c>
       <c r="E107" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="108">
@@ -2272,16 +2272,16 @@
         <v>2</v>
       </c>
       <c r="B108" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C108" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="D108" t="n">
-        <v>118.6086000254619</v>
+        <v>82.97590011563598</v>
       </c>
       <c r="E108" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="109">
@@ -2289,16 +2289,16 @@
         <v>2</v>
       </c>
       <c r="B109" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C109" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D109" t="n">
-        <v>118.6086000254619</v>
+        <v>82.97590011563598</v>
       </c>
       <c r="E109" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="110">
@@ -2306,16 +2306,16 @@
         <v>2</v>
       </c>
       <c r="B110" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C110" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D110" t="n">
-        <v>144.5164350515193</v>
+        <v>105.6834897228512</v>
       </c>
       <c r="E110" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="111">
@@ -2323,16 +2323,16 @@
         <v>2</v>
       </c>
       <c r="B111" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C111" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D111" t="n">
-        <v>144.5164350515193</v>
+        <v>105.6834897228512</v>
       </c>
       <c r="E111" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="112">
@@ -2340,16 +2340,16 @@
         <v>2</v>
       </c>
       <c r="B112" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C112" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D112" t="n">
-        <v>674.2966706131656</v>
+        <v>134.937022347464</v>
       </c>
       <c r="E112" t="n">
-        <v>21</v>
+        <v>8</v>
       </c>
     </row>
     <row r="113">
@@ -2357,16 +2357,288 @@
         <v>2</v>
       </c>
       <c r="B113" t="n">
+        <v>6</v>
+      </c>
+      <c r="C113" t="n">
+        <v>2</v>
+      </c>
+      <c r="D113" t="n">
+        <v>134.937022347464</v>
+      </c>
+      <c r="E113" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>2</v>
+      </c>
+      <c r="B114" t="n">
+        <v>1</v>
+      </c>
+      <c r="C114" t="n">
+        <v>20</v>
+      </c>
+      <c r="D114" t="n">
+        <v>264.7413832403238</v>
+      </c>
+      <c r="E114" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>2</v>
+      </c>
+      <c r="B115" t="n">
+        <v>20</v>
+      </c>
+      <c r="C115" t="n">
+        <v>1</v>
+      </c>
+      <c r="D115" t="n">
+        <v>264.7413832403238</v>
+      </c>
+      <c r="E115" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>2</v>
+      </c>
+      <c r="B116" t="n">
+        <v>8</v>
+      </c>
+      <c r="C116" t="n">
+        <v>13</v>
+      </c>
+      <c r="D116" t="n">
+        <v>96.21330469326995</v>
+      </c>
+      <c r="E116" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>2</v>
+      </c>
+      <c r="B117" t="n">
+        <v>13</v>
+      </c>
+      <c r="C117" t="n">
+        <v>8</v>
+      </c>
+      <c r="D117" t="n">
+        <v>96.21330469326995</v>
+      </c>
+      <c r="E117" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>2</v>
+      </c>
+      <c r="B118" t="n">
+        <v>7</v>
+      </c>
+      <c r="C118" t="n">
+        <v>20</v>
+      </c>
+      <c r="D118" t="n">
+        <v>135.7239846158371</v>
+      </c>
+      <c r="E118" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>2</v>
+      </c>
+      <c r="B119" t="n">
+        <v>20</v>
+      </c>
+      <c r="C119" t="n">
+        <v>7</v>
+      </c>
+      <c r="D119" t="n">
+        <v>135.7239846158371</v>
+      </c>
+      <c r="E119" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>2</v>
+      </c>
+      <c r="B120" t="n">
+        <v>4</v>
+      </c>
+      <c r="C120" t="n">
+        <v>9</v>
+      </c>
+      <c r="D120" t="n">
+        <v>42.94182110716778</v>
+      </c>
+      <c r="E120" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>2</v>
+      </c>
+      <c r="B121" t="n">
+        <v>9</v>
+      </c>
+      <c r="C121" t="n">
+        <v>4</v>
+      </c>
+      <c r="D121" t="n">
+        <v>42.94182110716778</v>
+      </c>
+      <c r="E121" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>2</v>
+      </c>
+      <c r="B122" t="n">
+        <v>11</v>
+      </c>
+      <c r="C122" t="n">
+        <v>14</v>
+      </c>
+      <c r="D122" t="n">
+        <v>457.5947989214912</v>
+      </c>
+      <c r="E122" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>2</v>
+      </c>
+      <c r="B123" t="n">
+        <v>14</v>
+      </c>
+      <c r="C123" t="n">
+        <v>11</v>
+      </c>
+      <c r="D123" t="n">
+        <v>457.5947989214912</v>
+      </c>
+      <c r="E123" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>2</v>
+      </c>
+      <c r="B124" t="n">
+        <v>12</v>
+      </c>
+      <c r="C124" t="n">
+        <v>13</v>
+      </c>
+      <c r="D124" t="n">
+        <v>98.00510190801293</v>
+      </c>
+      <c r="E124" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>2</v>
+      </c>
+      <c r="B125" t="n">
+        <v>13</v>
+      </c>
+      <c r="C125" t="n">
+        <v>12</v>
+      </c>
+      <c r="D125" t="n">
+        <v>98.00510190801293</v>
+      </c>
+      <c r="E125" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>2</v>
+      </c>
+      <c r="B126" t="n">
+        <v>12</v>
+      </c>
+      <c r="C126" t="n">
         <v>16</v>
       </c>
-      <c r="C113" t="n">
-        <v>10</v>
-      </c>
-      <c r="D113" t="n">
-        <v>674.2966706131656</v>
-      </c>
-      <c r="E113" t="n">
-        <v>21</v>
+      <c r="D126" t="n">
+        <v>267.4864482548602</v>
+      </c>
+      <c r="E126" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>2</v>
+      </c>
+      <c r="B127" t="n">
+        <v>16</v>
+      </c>
+      <c r="C127" t="n">
+        <v>12</v>
+      </c>
+      <c r="D127" t="n">
+        <v>267.4864482548602</v>
+      </c>
+      <c r="E127" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>2</v>
+      </c>
+      <c r="B128" t="n">
+        <v>14</v>
+      </c>
+      <c r="C128" t="n">
+        <v>16</v>
+      </c>
+      <c r="D128" t="n">
+        <v>52.80151512977634</v>
+      </c>
+      <c r="E128" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>2</v>
+      </c>
+      <c r="B129" t="n">
+        <v>16</v>
+      </c>
+      <c r="C129" t="n">
+        <v>14</v>
+      </c>
+      <c r="D129" t="n">
+        <v>52.80151512977634</v>
+      </c>
+      <c r="E129" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -2417,342 +2689,342 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1436</v>
+        <v>1386</v>
       </c>
       <c r="B2" t="n">
-        <v>335</v>
+        <v>44</v>
       </c>
       <c r="C2" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>605</v>
+        <v>1065</v>
       </c>
       <c r="B3" t="n">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="C3" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1202</v>
+        <v>1047</v>
       </c>
       <c r="B4" t="n">
-        <v>249</v>
+        <v>204</v>
       </c>
       <c r="C4" t="n">
         <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>718</v>
+        <v>805</v>
       </c>
       <c r="B5" t="n">
-        <v>163</v>
+        <v>355</v>
       </c>
       <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
         <v>10</v>
       </c>
-      <c r="D5" t="n">
-        <v>6</v>
-      </c>
       <c r="E5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>165</v>
+        <v>1083</v>
       </c>
       <c r="B6" t="n">
-        <v>470</v>
+        <v>296</v>
       </c>
       <c r="C6" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E6" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>973</v>
+        <v>1197</v>
       </c>
       <c r="B7" t="n">
-        <v>197</v>
+        <v>151</v>
       </c>
       <c r="C7" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1229</v>
+        <v>1218</v>
       </c>
       <c r="B8" t="n">
-        <v>122</v>
+        <v>267</v>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1295</v>
+        <v>220</v>
       </c>
       <c r="B9" t="n">
-        <v>114</v>
+        <v>266</v>
       </c>
       <c r="C9" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E9" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>187</v>
+        <v>843</v>
       </c>
       <c r="B10" t="n">
-        <v>6</v>
+        <v>335</v>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D10" t="n">
+        <v>3</v>
+      </c>
+      <c r="E10" t="n">
         <v>4</v>
-      </c>
-      <c r="E10" t="n">
-        <v>9</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1175</v>
+        <v>548</v>
       </c>
       <c r="B11" t="n">
-        <v>9</v>
+        <v>110</v>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D11" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1367</v>
+        <v>666</v>
       </c>
       <c r="B12" t="n">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="C12" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E12" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1401</v>
+        <v>46</v>
       </c>
       <c r="B13" t="n">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="C13" t="n">
+        <v>5</v>
+      </c>
+      <c r="D13" t="n">
         <v>10</v>
       </c>
-      <c r="D13" t="n">
-        <v>1</v>
-      </c>
       <c r="E13" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>217</v>
+        <v>144</v>
       </c>
       <c r="B14" t="n">
-        <v>469</v>
+        <v>207</v>
       </c>
       <c r="C14" t="n">
         <v>10</v>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E14" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1158</v>
+        <v>233</v>
       </c>
       <c r="B15" t="n">
-        <v>271</v>
+        <v>466</v>
       </c>
       <c r="C15" t="n">
         <v>10</v>
       </c>
       <c r="D15" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E15" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>836</v>
+        <v>795</v>
       </c>
       <c r="B16" t="n">
-        <v>151</v>
+        <v>75</v>
       </c>
       <c r="C16" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E16" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>505</v>
+        <v>201</v>
       </c>
       <c r="B17" t="n">
-        <v>85</v>
+        <v>424</v>
       </c>
       <c r="C17" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D17" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E17" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>897</v>
+        <v>34</v>
       </c>
       <c r="B18" t="n">
-        <v>449</v>
+        <v>101</v>
       </c>
       <c r="C18" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E18" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>638</v>
+        <v>1185</v>
       </c>
       <c r="B19" t="n">
-        <v>224</v>
+        <v>433</v>
       </c>
       <c r="C19" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D19" t="n">
         <v>10</v>
       </c>
       <c r="E19" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>85</v>
+        <v>811</v>
       </c>
       <c r="B20" t="n">
-        <v>521</v>
+        <v>450</v>
       </c>
       <c r="C20" t="n">
         <v>10</v>
       </c>
       <c r="D20" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E20" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1144</v>
+        <v>1348</v>
       </c>
       <c r="B21" t="n">
-        <v>379</v>
+        <v>306</v>
       </c>
       <c r="C21" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E21" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -2788,7 +3060,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B2" t="n">
         <v>2</v>
@@ -2796,7 +3068,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B3" t="n">
         <v>5</v>
@@ -2830,7 +3102,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -2875,7 +3147,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D65"/>
+  <dimension ref="A1:D63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2913,10 +3185,10 @@
         <v>17</v>
       </c>
       <c r="C2" t="n">
-        <v>680.2940540677979</v>
+        <v>152.7612516314265</v>
       </c>
       <c r="D2" t="n">
-        <v>36</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3">
@@ -2927,10 +3199,10 @@
         <v>13</v>
       </c>
       <c r="C3" t="n">
-        <v>680.2940540677979</v>
+        <v>152.7612516314265</v>
       </c>
       <c r="D3" t="n">
-        <v>36</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4">
@@ -2938,10 +3210,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C4" t="n">
-        <v>52.00961449578337</v>
+        <v>138.0796871375366</v>
       </c>
       <c r="D4" t="n">
         <v>17</v>
@@ -2949,13 +3221,13 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B5" t="n">
         <v>5</v>
       </c>
       <c r="C5" t="n">
-        <v>52.00961449578337</v>
+        <v>138.0796871375366</v>
       </c>
       <c r="D5" t="n">
         <v>17</v>
@@ -2963,97 +3235,97 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C6" t="n">
-        <v>304.1792234851026</v>
+        <v>143.8401890988746</v>
       </c>
       <c r="D6" t="n">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B7" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C7" t="n">
-        <v>304.1792234851026</v>
+        <v>143.8401890988746</v>
       </c>
       <c r="D7" t="n">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C8" t="n">
-        <v>199.2510978639766</v>
+        <v>312.5699921617557</v>
       </c>
       <c r="D8" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C9" t="n">
-        <v>199.2510978639766</v>
+        <v>312.5699921617557</v>
       </c>
       <c r="D9" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B10" t="n">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>337.3973918097175</v>
+        <v>217.1865557533431</v>
       </c>
       <c r="D10" t="n">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="B11" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>337.3973918097175</v>
+        <v>217.1865557533431</v>
       </c>
       <c r="D11" t="n">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B12" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="C12" t="n">
-        <v>249.3030284613486</v>
+        <v>216.3931607052312</v>
       </c>
       <c r="D12" t="n">
         <v>26</v>
@@ -3061,13 +3333,13 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C13" t="n">
-        <v>249.3030284613486</v>
+        <v>216.3931607052312</v>
       </c>
       <c r="D13" t="n">
         <v>26</v>
@@ -3075,44 +3347,44 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B14" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C14" t="n">
-        <v>263.2109420217936</v>
+        <v>119.3691752505646</v>
       </c>
       <c r="D14" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B15" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C15" t="n">
-        <v>263.2109420217936</v>
+        <v>119.3691752505646</v>
       </c>
       <c r="D15" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="B16" t="n">
         <v>19</v>
       </c>
       <c r="C16" t="n">
-        <v>94.87360012142472</v>
+        <v>374.3861642742691</v>
       </c>
       <c r="D16" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17">
@@ -3120,80 +3392,80 @@
         <v>19</v>
       </c>
       <c r="B17" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="C17" t="n">
-        <v>94.87360012142472</v>
+        <v>374.3861642742691</v>
       </c>
       <c r="D17" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B18" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C18" t="n">
-        <v>988.0045546453721</v>
+        <v>159.0880259479009</v>
       </c>
       <c r="D18" t="n">
-        <v>38</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B19" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>988.0045546453721</v>
+        <v>159.0880259479009</v>
       </c>
       <c r="D19" t="n">
-        <v>38</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B20" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C20" t="n">
-        <v>367.5391135648014</v>
+        <v>196.084165602427</v>
       </c>
       <c r="D20" t="n">
-        <v>33</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C21" t="n">
-        <v>367.5391135648014</v>
+        <v>196.084165602427</v>
       </c>
       <c r="D21" t="n">
-        <v>33</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B22" t="n">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C22" t="n">
-        <v>249.7298540423231</v>
+        <v>242.4396832203837</v>
       </c>
       <c r="D22" t="n">
         <v>24</v>
@@ -3201,13 +3473,13 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="B23" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C23" t="n">
-        <v>249.7298540423231</v>
+        <v>242.4396832203837</v>
       </c>
       <c r="D23" t="n">
         <v>24</v>
@@ -3215,13 +3487,13 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B24" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C24" t="n">
-        <v>463.9709042601702</v>
+        <v>449.0211576306845</v>
       </c>
       <c r="D24" t="n">
         <v>38</v>
@@ -3229,13 +3501,13 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B25" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C25" t="n">
-        <v>463.9709042601702</v>
+        <v>449.0211576306845</v>
       </c>
       <c r="D25" t="n">
         <v>38</v>
@@ -3243,310 +3515,310 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B26" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C26" t="n">
-        <v>327.6659884699662</v>
+        <v>200.4220546746291</v>
       </c>
       <c r="D26" t="n">
-        <v>31</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B27" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C27" t="n">
-        <v>327.6659884699662</v>
+        <v>200.4220546746291</v>
       </c>
       <c r="D27" t="n">
-        <v>31</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B28" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="C28" t="n">
-        <v>129.8653148458048</v>
+        <v>169.2483382488584</v>
       </c>
       <c r="D28" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="B29" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C29" t="n">
-        <v>129.8653148458048</v>
+        <v>169.2483382488584</v>
       </c>
       <c r="D29" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B30" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C30" t="n">
-        <v>577.0615218501404</v>
+        <v>184.4478246008881</v>
       </c>
       <c r="D30" t="n">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B31" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>577.0615218501404</v>
+        <v>184.4478246008881</v>
       </c>
       <c r="D31" t="n">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B32" t="n">
+        <v>7</v>
+      </c>
+      <c r="C32" t="n">
+        <v>117.8855377050128</v>
+      </c>
+      <c r="D32" t="n">
         <v>16</v>
-      </c>
-      <c r="C32" t="n">
-        <v>100.9752444909147</v>
-      </c>
-      <c r="D32" t="n">
-        <v>21</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
+        <v>7</v>
+      </c>
+      <c r="B33" t="n">
+        <v>6</v>
+      </c>
+      <c r="C33" t="n">
+        <v>117.8855377050128</v>
+      </c>
+      <c r="D33" t="n">
         <v>16</v>
-      </c>
-      <c r="B33" t="n">
-        <v>2</v>
-      </c>
-      <c r="C33" t="n">
-        <v>100.9752444909147</v>
-      </c>
-      <c r="D33" t="n">
-        <v>21</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B34" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C34" t="n">
-        <v>74.46475676452586</v>
+        <v>243.1481030154256</v>
       </c>
       <c r="D34" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B35" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C35" t="n">
-        <v>74.46475676452586</v>
+        <v>243.1481030154256</v>
       </c>
       <c r="D35" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
+        <v>13</v>
+      </c>
+      <c r="B36" t="n">
         <v>16</v>
       </c>
-      <c r="B36" t="n">
-        <v>18</v>
-      </c>
       <c r="C36" t="n">
-        <v>192.379832622861</v>
+        <v>224.3613157386986</v>
       </c>
       <c r="D36" t="n">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B37" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C37" t="n">
-        <v>192.379832622861</v>
+        <v>224.3613157386986</v>
       </c>
       <c r="D37" t="n">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B38" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C38" t="n">
-        <v>266.7601919327545</v>
+        <v>170.8010538609174</v>
       </c>
       <c r="D38" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="B39" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C39" t="n">
-        <v>266.7601919327545</v>
+        <v>170.8010538609174</v>
       </c>
       <c r="D39" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B40" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C40" t="n">
-        <v>464.5212589322473</v>
+        <v>330.5782811982663</v>
       </c>
       <c r="D40" t="n">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B41" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C41" t="n">
-        <v>464.5212589322473</v>
+        <v>330.5782811982663</v>
       </c>
       <c r="D41" t="n">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="B42" t="n">
+        <v>3</v>
+      </c>
+      <c r="C42" t="n">
+        <v>82.97590011563598</v>
+      </c>
+      <c r="D42" t="n">
         <v>19</v>
-      </c>
-      <c r="C42" t="n">
-        <v>141.8731828077456</v>
-      </c>
-      <c r="D42" t="n">
-        <v>16</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
+        <v>3</v>
+      </c>
+      <c r="B43" t="n">
+        <v>2</v>
+      </c>
+      <c r="C43" t="n">
+        <v>82.97590011563598</v>
+      </c>
+      <c r="D43" t="n">
         <v>19</v>
-      </c>
-      <c r="B43" t="n">
-        <v>13</v>
-      </c>
-      <c r="C43" t="n">
-        <v>141.8731828077456</v>
-      </c>
-      <c r="D43" t="n">
-        <v>16</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B44" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C44" t="n">
-        <v>228.5607140345865</v>
+        <v>105.6834897228512</v>
       </c>
       <c r="D44" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B45" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C45" t="n">
-        <v>228.5607140345865</v>
+        <v>105.6834897228512</v>
       </c>
       <c r="D45" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B46" t="n">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C46" t="n">
-        <v>550.9237696814324</v>
+        <v>134.937022347464</v>
       </c>
       <c r="D46" t="n">
-        <v>39</v>
+        <v>15</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="B47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C47" t="n">
-        <v>550.9237696814324</v>
+        <v>134.937022347464</v>
       </c>
       <c r="D47" t="n">
-        <v>39</v>
+        <v>15</v>
       </c>
     </row>
     <row r="48">
@@ -3557,10 +3829,10 @@
         <v>20</v>
       </c>
       <c r="C48" t="n">
-        <v>295.296461204668</v>
+        <v>264.7413832403238</v>
       </c>
       <c r="D48" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="49">
@@ -3571,192 +3843,192 @@
         <v>1</v>
       </c>
       <c r="C49" t="n">
-        <v>295.296461204668</v>
+        <v>264.7413832403238</v>
       </c>
       <c r="D49" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B50" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C50" t="n">
-        <v>236.7804890610711</v>
+        <v>96.21330469326995</v>
       </c>
       <c r="D50" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B51" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C51" t="n">
-        <v>236.7804890610711</v>
+        <v>96.21330469326995</v>
       </c>
       <c r="D51" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B52" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C52" t="n">
-        <v>129.2826361117378</v>
+        <v>135.7239846158371</v>
       </c>
       <c r="D52" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B53" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C53" t="n">
-        <v>129.2826361117378</v>
+        <v>135.7239846158371</v>
       </c>
       <c r="D53" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="B54" t="n">
+        <v>9</v>
+      </c>
+      <c r="C54" t="n">
+        <v>42.94182110716778</v>
+      </c>
+      <c r="D54" t="n">
         <v>19</v>
-      </c>
-      <c r="C54" t="n">
-        <v>815.185868376041</v>
-      </c>
-      <c r="D54" t="n">
-        <v>39</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
+        <v>9</v>
+      </c>
+      <c r="B55" t="n">
+        <v>4</v>
+      </c>
+      <c r="C55" t="n">
+        <v>42.94182110716778</v>
+      </c>
+      <c r="D55" t="n">
         <v>19</v>
-      </c>
-      <c r="B55" t="n">
-        <v>17</v>
-      </c>
-      <c r="C55" t="n">
-        <v>815.185868376041</v>
-      </c>
-      <c r="D55" t="n">
-        <v>39</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B56" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C56" t="n">
-        <v>487.0995791416782</v>
+        <v>457.5947989214912</v>
       </c>
       <c r="D56" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B57" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C57" t="n">
-        <v>487.0995791416782</v>
+        <v>457.5947989214912</v>
       </c>
       <c r="D57" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B58" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C58" t="n">
-        <v>118.6086000254619</v>
+        <v>98.00510190801293</v>
       </c>
       <c r="D58" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B59" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C59" t="n">
-        <v>118.6086000254619</v>
+        <v>98.00510190801293</v>
       </c>
       <c r="D59" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B60" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C60" t="n">
-        <v>144.5164350515193</v>
+        <v>267.4864482548602</v>
       </c>
       <c r="D60" t="n">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B61" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C61" t="n">
-        <v>144.5164350515193</v>
+        <v>267.4864482548602</v>
       </c>
       <c r="D61" t="n">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B62" t="n">
         <v>16</v>
       </c>
       <c r="C62" t="n">
-        <v>674.2966706131656</v>
+        <v>52.80151512977634</v>
       </c>
       <c r="D62" t="n">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63">
@@ -3764,41 +4036,13 @@
         <v>16</v>
       </c>
       <c r="B63" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C63" t="n">
-        <v>674.2966706131656</v>
+        <v>52.80151512977634</v>
       </c>
       <c r="D63" t="n">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="n">
-        <v>17</v>
-      </c>
-      <c r="B64" t="n">
-        <v>18</v>
-      </c>
-      <c r="C64" t="n">
-        <v>343.0830803172899</v>
-      </c>
-      <c r="D64" t="n">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="n">
-        <v>18</v>
-      </c>
-      <c r="B65" t="n">
-        <v>17</v>
-      </c>
-      <c r="C65" t="n">
-        <v>343.0830803172899</v>
-      </c>
-      <c r="D65" t="n">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/randomPlanarGraph/data/FFP_n20_no1.xlsx
+++ b/randomPlanarGraph/data/FFP_n20_no1.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E129"/>
+  <dimension ref="A1:E133"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,16 +470,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C2" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D2" t="n">
-        <v>152.7612516314265</v>
+        <v>116.2755348299891</v>
       </c>
       <c r="E2" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -487,16 +487,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C3" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D3" t="n">
-        <v>152.7612516314265</v>
+        <v>116.2755348299891</v>
       </c>
       <c r="E3" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -504,16 +504,16 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C4" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="D4" t="n">
-        <v>138.0796871375366</v>
+        <v>163.5145253486674</v>
       </c>
       <c r="E4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5">
@@ -521,16 +521,16 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D5" t="n">
-        <v>138.0796871375366</v>
+        <v>163.5145253486674</v>
       </c>
       <c r="E5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6">
@@ -541,13 +541,13 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>143.8401890988746</v>
+        <v>153.3231880701676</v>
       </c>
       <c r="E6" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -555,16 +555,16 @@
         <v>1</v>
       </c>
       <c r="B7" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C7" t="n">
         <v>4</v>
       </c>
       <c r="D7" t="n">
-        <v>143.8401890988746</v>
+        <v>153.3231880701676</v>
       </c>
       <c r="E7" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -572,16 +572,16 @@
         <v>1</v>
       </c>
       <c r="B8" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C8" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D8" t="n">
-        <v>761.4440228933444</v>
+        <v>154.0292180074936</v>
       </c>
       <c r="E8" t="n">
-        <v>22</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9">
@@ -589,16 +589,16 @@
         <v>1</v>
       </c>
       <c r="B9" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C9" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
-        <v>761.4440228933444</v>
+        <v>154.0292180074936</v>
       </c>
       <c r="E9" t="n">
-        <v>22</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10">
@@ -606,16 +606,16 @@
         <v>1</v>
       </c>
       <c r="B10" t="n">
+        <v>15</v>
+      </c>
+      <c r="C10" t="n">
+        <v>17</v>
+      </c>
+      <c r="D10" t="n">
+        <v>379.5694929785585</v>
+      </c>
+      <c r="E10" t="n">
         <v>5</v>
-      </c>
-      <c r="C10" t="n">
-        <v>19</v>
-      </c>
-      <c r="D10" t="n">
-        <v>312.5699921617557</v>
-      </c>
-      <c r="E10" t="n">
-        <v>18</v>
       </c>
     </row>
     <row r="11">
@@ -623,16 +623,16 @@
         <v>1</v>
       </c>
       <c r="B11" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C11" t="n">
+        <v>15</v>
+      </c>
+      <c r="D11" t="n">
+        <v>379.5694929785585</v>
+      </c>
+      <c r="E11" t="n">
         <v>5</v>
-      </c>
-      <c r="D11" t="n">
-        <v>312.5699921617557</v>
-      </c>
-      <c r="E11" t="n">
-        <v>18</v>
       </c>
     </row>
     <row r="12">
@@ -640,16 +640,16 @@
         <v>1</v>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C12" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D12" t="n">
-        <v>217.1865557533431</v>
+        <v>243.402958075698</v>
       </c>
       <c r="E12" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13">
@@ -657,16 +657,16 @@
         <v>1</v>
       </c>
       <c r="B13" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
-        <v>217.1865557533431</v>
+        <v>243.402958075698</v>
       </c>
       <c r="E13" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14">
@@ -674,16 +674,16 @@
         <v>1</v>
       </c>
       <c r="B14" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C14" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D14" t="n">
-        <v>216.3931607052312</v>
+        <v>628.9554833213556</v>
       </c>
       <c r="E14" t="n">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15">
@@ -691,16 +691,16 @@
         <v>1</v>
       </c>
       <c r="B15" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C15" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D15" t="n">
-        <v>216.3931607052312</v>
+        <v>628.9554833213556</v>
       </c>
       <c r="E15" t="n">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16">
@@ -708,16 +708,16 @@
         <v>1</v>
       </c>
       <c r="B16" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D16" t="n">
-        <v>119.3691752505646</v>
+        <v>159.6558799418299</v>
       </c>
       <c r="E16" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17">
@@ -725,16 +725,16 @@
         <v>1</v>
       </c>
       <c r="B17" t="n">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="C17" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>119.3691752505646</v>
+        <v>159.6558799418299</v>
       </c>
       <c r="E17" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18">
@@ -742,16 +742,16 @@
         <v>1</v>
       </c>
       <c r="B18" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C18" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D18" t="n">
-        <v>249.4674327442362</v>
+        <v>250.1919263285688</v>
       </c>
       <c r="E18" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19">
@@ -759,16 +759,16 @@
         <v>1</v>
       </c>
       <c r="B19" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C19" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D19" t="n">
-        <v>249.4674327442362</v>
+        <v>250.1919263285688</v>
       </c>
       <c r="E19" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20">
@@ -776,16 +776,16 @@
         <v>1</v>
       </c>
       <c r="B20" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C20" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D20" t="n">
-        <v>591.8124702978132</v>
+        <v>419.505661463585</v>
       </c>
       <c r="E20" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21">
@@ -793,16 +793,16 @@
         <v>1</v>
       </c>
       <c r="B21" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D21" t="n">
-        <v>591.8124702978132</v>
+        <v>419.505661463585</v>
       </c>
       <c r="E21" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22">
@@ -810,16 +810,16 @@
         <v>1</v>
       </c>
       <c r="B22" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D22" t="n">
-        <v>159.0880259479009</v>
+        <v>224.8755211222422</v>
       </c>
       <c r="E22" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23">
@@ -827,16 +827,16 @@
         <v>1</v>
       </c>
       <c r="B23" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D23" t="n">
-        <v>159.0880259479009</v>
+        <v>224.8755211222422</v>
       </c>
       <c r="E23" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24">
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="B24" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C24" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D24" t="n">
-        <v>196.084165602427</v>
+        <v>546.1318522115332</v>
       </c>
       <c r="E24" t="n">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25">
@@ -861,16 +861,16 @@
         <v>1</v>
       </c>
       <c r="B25" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C25" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D25" t="n">
-        <v>196.084165602427</v>
+        <v>546.1318522115332</v>
       </c>
       <c r="E25" t="n">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26">
@@ -878,16 +878,16 @@
         <v>1</v>
       </c>
       <c r="B26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C26" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D26" t="n">
-        <v>242.4396832203837</v>
+        <v>139.2838827718412</v>
       </c>
       <c r="E26" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27">
@@ -895,16 +895,16 @@
         <v>1</v>
       </c>
       <c r="B27" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
-        <v>242.4396832203837</v>
+        <v>139.2838827718412</v>
       </c>
       <c r="E27" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28">
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="B28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D28" t="n">
-        <v>283.0989226401259</v>
+        <v>210.1071155387175</v>
       </c>
       <c r="E28" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29">
@@ -929,16 +929,16 @@
         <v>1</v>
       </c>
       <c r="B29" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
-        <v>283.0989226401259</v>
+        <v>210.1071155387175</v>
       </c>
       <c r="E29" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30">
@@ -946,16 +946,16 @@
         <v>1</v>
       </c>
       <c r="B30" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C30" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D30" t="n">
-        <v>449.0211576306845</v>
+        <v>412.1577367950285</v>
       </c>
       <c r="E30" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31">
@@ -963,16 +963,16 @@
         <v>1</v>
       </c>
       <c r="B31" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C31" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D31" t="n">
-        <v>449.0211576306845</v>
+        <v>412.1577367950285</v>
       </c>
       <c r="E31" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32">
@@ -983,13 +983,13 @@
         <v>8</v>
       </c>
       <c r="C32" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D32" t="n">
-        <v>200.4220546746291</v>
+        <v>70.40596565632774</v>
       </c>
       <c r="E32" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33">
@@ -997,16 +997,16 @@
         <v>1</v>
       </c>
       <c r="B33" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C33" t="n">
         <v>8</v>
       </c>
       <c r="D33" t="n">
-        <v>200.4220546746291</v>
+        <v>70.40596565632774</v>
       </c>
       <c r="E33" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34">
@@ -1017,13 +1017,13 @@
         <v>5</v>
       </c>
       <c r="C34" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D34" t="n">
-        <v>184.4478246008881</v>
+        <v>42.7551166528639</v>
       </c>
       <c r="E34" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35">
@@ -1031,16 +1031,16 @@
         <v>1</v>
       </c>
       <c r="B35" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C35" t="n">
         <v>5</v>
       </c>
       <c r="D35" t="n">
-        <v>184.4478246008881</v>
+        <v>42.7551166528639</v>
       </c>
       <c r="E35" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36">
@@ -1051,13 +1051,13 @@
         <v>6</v>
       </c>
       <c r="C36" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D36" t="n">
-        <v>117.8855377050128</v>
+        <v>214.7091055358389</v>
       </c>
       <c r="E36" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37">
@@ -1065,16 +1065,16 @@
         <v>1</v>
       </c>
       <c r="B37" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C37" t="n">
         <v>6</v>
       </c>
       <c r="D37" t="n">
-        <v>117.8855377050128</v>
+        <v>214.7091055358389</v>
       </c>
       <c r="E37" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38">
@@ -1082,16 +1082,16 @@
         <v>1</v>
       </c>
       <c r="B38" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C38" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D38" t="n">
-        <v>243.1481030154256</v>
+        <v>277.6562623100729</v>
       </c>
       <c r="E38" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="39">
@@ -1099,16 +1099,16 @@
         <v>1</v>
       </c>
       <c r="B39" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D39" t="n">
-        <v>243.1481030154256</v>
+        <v>277.6562623100729</v>
       </c>
       <c r="E39" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40">
@@ -1116,16 +1116,16 @@
         <v>1</v>
       </c>
       <c r="B40" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C40" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
-        <v>224.3613157386986</v>
+        <v>138.0326048439281</v>
       </c>
       <c r="E40" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41">
@@ -1133,16 +1133,16 @@
         <v>1</v>
       </c>
       <c r="B41" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
-        <v>224.3613157386986</v>
+        <v>138.0326048439281</v>
       </c>
       <c r="E41" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="42">
@@ -1150,16 +1150,16 @@
         <v>1</v>
       </c>
       <c r="B42" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D42" t="n">
-        <v>330.5782811982663</v>
+        <v>1019.65680500843</v>
       </c>
       <c r="E42" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="43">
@@ -1167,16 +1167,16 @@
         <v>1</v>
       </c>
       <c r="B43" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C43" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D43" t="n">
-        <v>330.5782811982663</v>
+        <v>1019.65680500843</v>
       </c>
       <c r="E43" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="44">
@@ -1184,16 +1184,16 @@
         <v>1</v>
       </c>
       <c r="B44" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="D44" t="n">
-        <v>82.97590011563598</v>
+        <v>336.5070578754627</v>
       </c>
       <c r="E44" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45">
@@ -1201,16 +1201,16 @@
         <v>1</v>
       </c>
       <c r="B45" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D45" t="n">
-        <v>82.97590011563598</v>
+        <v>336.5070578754627</v>
       </c>
       <c r="E45" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46">
@@ -1221,13 +1221,13 @@
         <v>12</v>
       </c>
       <c r="C46" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D46" t="n">
-        <v>105.6834897228512</v>
+        <v>335.9315406448165</v>
       </c>
       <c r="E46" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="47">
@@ -1235,16 +1235,16 @@
         <v>1</v>
       </c>
       <c r="B47" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C47" t="n">
         <v>12</v>
       </c>
       <c r="D47" t="n">
-        <v>105.6834897228512</v>
+        <v>335.9315406448165</v>
       </c>
       <c r="E47" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="48">
@@ -1252,16 +1252,16 @@
         <v>1</v>
       </c>
       <c r="B48" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C48" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D48" t="n">
-        <v>134.937022347464</v>
+        <v>114.5425685062108</v>
       </c>
       <c r="E48" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="49">
@@ -1269,16 +1269,16 @@
         <v>1</v>
       </c>
       <c r="B49" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
-        <v>134.937022347464</v>
+        <v>114.5425685062108</v>
       </c>
       <c r="E49" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="50">
@@ -1286,16 +1286,16 @@
         <v>1</v>
       </c>
       <c r="B50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C50" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D50" t="n">
-        <v>264.7413832403238</v>
+        <v>359.8694207625871</v>
       </c>
       <c r="E50" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="51">
@@ -1303,16 +1303,16 @@
         <v>1</v>
       </c>
       <c r="B51" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
-        <v>264.7413832403238</v>
+        <v>359.8694207625871</v>
       </c>
       <c r="E51" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="52">
@@ -1320,13 +1320,13 @@
         <v>1</v>
       </c>
       <c r="B52" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C52" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D52" t="n">
-        <v>96.21330469326995</v>
+        <v>158.0031645252714</v>
       </c>
       <c r="E52" t="n">
         <v>8</v>
@@ -1337,13 +1337,13 @@
         <v>1</v>
       </c>
       <c r="B53" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C53" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D53" t="n">
-        <v>96.21330469326995</v>
+        <v>158.0031645252714</v>
       </c>
       <c r="E53" t="n">
         <v>8</v>
@@ -1354,16 +1354,16 @@
         <v>1</v>
       </c>
       <c r="B54" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D54" t="n">
-        <v>135.7239846158371</v>
+        <v>171.4059508885266</v>
       </c>
       <c r="E54" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="55">
@@ -1371,16 +1371,16 @@
         <v>1</v>
       </c>
       <c r="B55" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C55" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D55" t="n">
-        <v>135.7239846158371</v>
+        <v>171.4059508885266</v>
       </c>
       <c r="E55" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="56">
@@ -1391,13 +1391,13 @@
         <v>4</v>
       </c>
       <c r="C56" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D56" t="n">
-        <v>42.94182110716778</v>
+        <v>194.0927613281856</v>
       </c>
       <c r="E56" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="57">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="B57" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C57" t="n">
         <v>4</v>
       </c>
       <c r="D57" t="n">
-        <v>42.94182110716778</v>
+        <v>194.0927613281856</v>
       </c>
       <c r="E57" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="58">
@@ -1422,16 +1422,16 @@
         <v>1</v>
       </c>
       <c r="B58" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C58" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
-        <v>457.5947989214912</v>
+        <v>75.23961722390672</v>
       </c>
       <c r="E58" t="n">
-        <v>22</v>
+        <v>6</v>
       </c>
     </row>
     <row r="59">
@@ -1439,16 +1439,16 @@
         <v>1</v>
       </c>
       <c r="B59" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C59" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
-        <v>457.5947989214912</v>
+        <v>75.23961722390672</v>
       </c>
       <c r="E59" t="n">
-        <v>22</v>
+        <v>6</v>
       </c>
     </row>
     <row r="60">
@@ -1456,16 +1456,16 @@
         <v>1</v>
       </c>
       <c r="B60" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C60" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D60" t="n">
-        <v>98.00510190801293</v>
+        <v>396.3647310243433</v>
       </c>
       <c r="E60" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="61">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="B61" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C61" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D61" t="n">
-        <v>98.00510190801293</v>
+        <v>396.3647310243433</v>
       </c>
       <c r="E61" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="62">
@@ -1490,16 +1490,16 @@
         <v>1</v>
       </c>
       <c r="B62" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C62" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D62" t="n">
-        <v>267.4864482548602</v>
+        <v>226.2962659877533</v>
       </c>
       <c r="E62" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="63">
@@ -1507,16 +1507,16 @@
         <v>1</v>
       </c>
       <c r="B63" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C63" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D63" t="n">
-        <v>267.4864482548602</v>
+        <v>226.2962659877533</v>
       </c>
       <c r="E63" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="64">
@@ -1524,16 +1524,16 @@
         <v>1</v>
       </c>
       <c r="B64" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C64" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D64" t="n">
-        <v>52.80151512977634</v>
+        <v>341.6021077218348</v>
       </c>
       <c r="E64" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="65">
@@ -1541,50 +1541,50 @@
         <v>1</v>
       </c>
       <c r="B65" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C65" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D65" t="n">
-        <v>52.80151512977634</v>
+        <v>341.6021077218348</v>
       </c>
       <c r="E65" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B66" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="C66" t="n">
+        <v>8</v>
+      </c>
+      <c r="D66" t="n">
+        <v>321.0062304691297</v>
+      </c>
+      <c r="E66" t="n">
         <v>17</v>
-      </c>
-      <c r="D66" t="n">
-        <v>152.7612516314265</v>
-      </c>
-      <c r="E66" t="n">
-        <v>12</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B67" t="n">
+        <v>8</v>
+      </c>
+      <c r="C67" t="n">
+        <v>2</v>
+      </c>
+      <c r="D67" t="n">
+        <v>321.0062304691297</v>
+      </c>
+      <c r="E67" t="n">
         <v>17</v>
-      </c>
-      <c r="C67" t="n">
-        <v>13</v>
-      </c>
-      <c r="D67" t="n">
-        <v>152.7612516314265</v>
-      </c>
-      <c r="E67" t="n">
-        <v>12</v>
       </c>
     </row>
     <row r="68">
@@ -1592,16 +1592,16 @@
         <v>2</v>
       </c>
       <c r="B68" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C68" t="n">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="D68" t="n">
-        <v>138.0796871375366</v>
+        <v>116.2755348299891</v>
       </c>
       <c r="E68" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="69">
@@ -1609,16 +1609,16 @@
         <v>2</v>
       </c>
       <c r="B69" t="n">
+        <v>19</v>
+      </c>
+      <c r="C69" t="n">
         <v>7</v>
       </c>
-      <c r="C69" t="n">
-        <v>5</v>
-      </c>
       <c r="D69" t="n">
-        <v>138.0796871375366</v>
+        <v>116.2755348299891</v>
       </c>
       <c r="E69" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="70">
@@ -1626,16 +1626,16 @@
         <v>2</v>
       </c>
       <c r="B70" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C70" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D70" t="n">
-        <v>143.8401890988746</v>
+        <v>163.5145253486674</v>
       </c>
       <c r="E70" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="71">
@@ -1643,16 +1643,16 @@
         <v>2</v>
       </c>
       <c r="B71" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D71" t="n">
-        <v>143.8401890988746</v>
+        <v>163.5145253486674</v>
       </c>
       <c r="E71" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="72">
@@ -1660,16 +1660,16 @@
         <v>2</v>
       </c>
       <c r="B72" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C72" t="n">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
-        <v>761.4440228933444</v>
+        <v>153.3231880701676</v>
       </c>
       <c r="E72" t="n">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73">
@@ -1677,16 +1677,16 @@
         <v>2</v>
       </c>
       <c r="B73" t="n">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C73" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
-        <v>761.4440228933444</v>
+        <v>153.3231880701676</v>
       </c>
       <c r="E73" t="n">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74">
@@ -1694,16 +1694,16 @@
         <v>2</v>
       </c>
       <c r="B74" t="n">
+        <v>4</v>
+      </c>
+      <c r="C74" t="n">
+        <v>11</v>
+      </c>
+      <c r="D74" t="n">
+        <v>154.0292180074936</v>
+      </c>
+      <c r="E74" t="n">
         <v>5</v>
-      </c>
-      <c r="C74" t="n">
-        <v>19</v>
-      </c>
-      <c r="D74" t="n">
-        <v>312.5699921617557</v>
-      </c>
-      <c r="E74" t="n">
-        <v>15</v>
       </c>
     </row>
     <row r="75">
@@ -1711,16 +1711,16 @@
         <v>2</v>
       </c>
       <c r="B75" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C75" t="n">
+        <v>4</v>
+      </c>
+      <c r="D75" t="n">
+        <v>154.0292180074936</v>
+      </c>
+      <c r="E75" t="n">
         <v>5</v>
-      </c>
-      <c r="D75" t="n">
-        <v>312.5699921617557</v>
-      </c>
-      <c r="E75" t="n">
-        <v>15</v>
       </c>
     </row>
     <row r="76">
@@ -1728,16 +1728,16 @@
         <v>2</v>
       </c>
       <c r="B76" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C76" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D76" t="n">
-        <v>217.1865557533431</v>
+        <v>379.5694929785585</v>
       </c>
       <c r="E76" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="77">
@@ -1745,16 +1745,16 @@
         <v>2</v>
       </c>
       <c r="B77" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C77" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="D77" t="n">
-        <v>217.1865557533431</v>
+        <v>379.5694929785585</v>
       </c>
       <c r="E77" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="78">
@@ -1762,13 +1762,13 @@
         <v>2</v>
       </c>
       <c r="B78" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C78" t="n">
         <v>20</v>
       </c>
       <c r="D78" t="n">
-        <v>216.3931607052312</v>
+        <v>243.402958075698</v>
       </c>
       <c r="E78" t="n">
         <v>8</v>
@@ -1782,10 +1782,10 @@
         <v>20</v>
       </c>
       <c r="C79" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
-        <v>216.3931607052312</v>
+        <v>243.402958075698</v>
       </c>
       <c r="E79" t="n">
         <v>8</v>
@@ -1799,13 +1799,13 @@
         <v>9</v>
       </c>
       <c r="C80" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D80" t="n">
-        <v>119.3691752505646</v>
+        <v>628.9554833213556</v>
       </c>
       <c r="E80" t="n">
-        <v>7</v>
+        <v>21</v>
       </c>
     </row>
     <row r="81">
@@ -1813,16 +1813,16 @@
         <v>2</v>
       </c>
       <c r="B81" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C81" t="n">
         <v>9</v>
       </c>
       <c r="D81" t="n">
-        <v>119.3691752505646</v>
+        <v>628.9554833213556</v>
       </c>
       <c r="E81" t="n">
-        <v>7</v>
+        <v>21</v>
       </c>
     </row>
     <row r="82">
@@ -1830,16 +1830,16 @@
         <v>2</v>
       </c>
       <c r="B82" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C82" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D82" t="n">
-        <v>249.4674327442362</v>
+        <v>159.6558799418299</v>
       </c>
       <c r="E82" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="83">
@@ -1847,16 +1847,16 @@
         <v>2</v>
       </c>
       <c r="B83" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C83" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D83" t="n">
-        <v>249.4674327442362</v>
+        <v>159.6558799418299</v>
       </c>
       <c r="E83" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="84">
@@ -1864,16 +1864,16 @@
         <v>2</v>
       </c>
       <c r="B84" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C84" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D84" t="n">
-        <v>591.8124702978132</v>
+        <v>250.1919263285688</v>
       </c>
       <c r="E84" t="n">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="85">
@@ -1881,16 +1881,16 @@
         <v>2</v>
       </c>
       <c r="B85" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C85" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D85" t="n">
-        <v>591.8124702978132</v>
+        <v>250.1919263285688</v>
       </c>
       <c r="E85" t="n">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="86">
@@ -1898,16 +1898,16 @@
         <v>2</v>
       </c>
       <c r="B86" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C86" t="n">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D86" t="n">
-        <v>159.0880259479009</v>
+        <v>419.505661463585</v>
       </c>
       <c r="E86" t="n">
-        <v>5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="87">
@@ -1915,16 +1915,16 @@
         <v>2</v>
       </c>
       <c r="B87" t="n">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D87" t="n">
-        <v>159.0880259479009</v>
+        <v>419.505661463585</v>
       </c>
       <c r="E87" t="n">
-        <v>5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="88">
@@ -1932,13 +1932,13 @@
         <v>2</v>
       </c>
       <c r="B88" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C88" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D88" t="n">
-        <v>196.084165602427</v>
+        <v>224.8755211222422</v>
       </c>
       <c r="E88" t="n">
         <v>12</v>
@@ -1949,13 +1949,13 @@
         <v>2</v>
       </c>
       <c r="B89" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C89" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D89" t="n">
-        <v>196.084165602427</v>
+        <v>224.8755211222422</v>
       </c>
       <c r="E89" t="n">
         <v>12</v>
@@ -1966,16 +1966,16 @@
         <v>2</v>
       </c>
       <c r="B90" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C90" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D90" t="n">
-        <v>242.4396832203837</v>
+        <v>546.1318522115332</v>
       </c>
       <c r="E90" t="n">
-        <v>5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="91">
@@ -1983,16 +1983,16 @@
         <v>2</v>
       </c>
       <c r="B91" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D91" t="n">
-        <v>242.4396832203837</v>
+        <v>546.1318522115332</v>
       </c>
       <c r="E91" t="n">
-        <v>5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="92">
@@ -2000,16 +2000,16 @@
         <v>2</v>
       </c>
       <c r="B92" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C92" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D92" t="n">
-        <v>283.0989226401259</v>
+        <v>139.2838827718412</v>
       </c>
       <c r="E92" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="93">
@@ -2017,16 +2017,16 @@
         <v>2</v>
       </c>
       <c r="B93" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
-        <v>283.0989226401259</v>
+        <v>139.2838827718412</v>
       </c>
       <c r="E93" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="94">
@@ -2034,16 +2034,16 @@
         <v>2</v>
       </c>
       <c r="B94" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C94" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D94" t="n">
-        <v>449.0211576306845</v>
+        <v>210.1071155387175</v>
       </c>
       <c r="E94" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="95">
@@ -2051,16 +2051,16 @@
         <v>2</v>
       </c>
       <c r="B95" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C95" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
-        <v>449.0211576306845</v>
+        <v>210.1071155387175</v>
       </c>
       <c r="E95" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="96">
@@ -2068,16 +2068,16 @@
         <v>2</v>
       </c>
       <c r="B96" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C96" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D96" t="n">
-        <v>200.4220546746291</v>
+        <v>412.1577367950285</v>
       </c>
       <c r="E96" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="97">
@@ -2085,16 +2085,16 @@
         <v>2</v>
       </c>
       <c r="B97" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C97" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D97" t="n">
-        <v>200.4220546746291</v>
+        <v>412.1577367950285</v>
       </c>
       <c r="E97" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="98">
@@ -2102,16 +2102,16 @@
         <v>2</v>
       </c>
       <c r="B98" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C98" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D98" t="n">
-        <v>184.4478246008881</v>
+        <v>70.40596565632774</v>
       </c>
       <c r="E98" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="99">
@@ -2119,16 +2119,16 @@
         <v>2</v>
       </c>
       <c r="B99" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D99" t="n">
-        <v>184.4478246008881</v>
+        <v>70.40596565632774</v>
       </c>
       <c r="E99" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="100">
@@ -2136,13 +2136,13 @@
         <v>2</v>
       </c>
       <c r="B100" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C100" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D100" t="n">
-        <v>117.8855377050128</v>
+        <v>42.7551166528639</v>
       </c>
       <c r="E100" t="n">
         <v>7</v>
@@ -2153,13 +2153,13 @@
         <v>2</v>
       </c>
       <c r="B101" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C101" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
-        <v>117.8855377050128</v>
+        <v>42.7551166528639</v>
       </c>
       <c r="E101" t="n">
         <v>7</v>
@@ -2170,13 +2170,13 @@
         <v>2</v>
       </c>
       <c r="B102" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C102" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D102" t="n">
-        <v>243.1481030154256</v>
+        <v>214.7091055358389</v>
       </c>
       <c r="E102" t="n">
         <v>14</v>
@@ -2187,13 +2187,13 @@
         <v>2</v>
       </c>
       <c r="B103" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C103" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D103" t="n">
-        <v>243.1481030154256</v>
+        <v>214.7091055358389</v>
       </c>
       <c r="E103" t="n">
         <v>14</v>
@@ -2204,16 +2204,16 @@
         <v>2</v>
       </c>
       <c r="B104" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C104" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D104" t="n">
-        <v>224.3613157386986</v>
+        <v>277.6562623100729</v>
       </c>
       <c r="E104" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="105">
@@ -2221,16 +2221,16 @@
         <v>2</v>
       </c>
       <c r="B105" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C105" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D105" t="n">
-        <v>224.3613157386986</v>
+        <v>277.6562623100729</v>
       </c>
       <c r="E105" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="106">
@@ -2238,16 +2238,16 @@
         <v>2</v>
       </c>
       <c r="B106" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C106" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D106" t="n">
-        <v>330.5782811982663</v>
+        <v>138.0326048439281</v>
       </c>
       <c r="E106" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="107">
@@ -2255,16 +2255,16 @@
         <v>2</v>
       </c>
       <c r="B107" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C107" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D107" t="n">
-        <v>330.5782811982663</v>
+        <v>138.0326048439281</v>
       </c>
       <c r="E107" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="108">
@@ -2272,16 +2272,16 @@
         <v>2</v>
       </c>
       <c r="B108" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C108" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D108" t="n">
-        <v>82.97590011563598</v>
+        <v>1019.65680500843</v>
       </c>
       <c r="E108" t="n">
-        <v>8</v>
+        <v>22</v>
       </c>
     </row>
     <row r="109">
@@ -2289,16 +2289,16 @@
         <v>2</v>
       </c>
       <c r="B109" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="C109" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D109" t="n">
-        <v>82.97590011563598</v>
+        <v>1019.65680500843</v>
       </c>
       <c r="E109" t="n">
-        <v>8</v>
+        <v>22</v>
       </c>
     </row>
     <row r="110">
@@ -2306,16 +2306,16 @@
         <v>2</v>
       </c>
       <c r="B110" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C110" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D110" t="n">
-        <v>105.6834897228512</v>
+        <v>336.5070578754627</v>
       </c>
       <c r="E110" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="111">
@@ -2323,16 +2323,16 @@
         <v>2</v>
       </c>
       <c r="B111" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C111" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D111" t="n">
-        <v>105.6834897228512</v>
+        <v>336.5070578754627</v>
       </c>
       <c r="E111" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="112">
@@ -2340,16 +2340,16 @@
         <v>2</v>
       </c>
       <c r="B112" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C112" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D112" t="n">
-        <v>134.937022347464</v>
+        <v>335.9315406448165</v>
       </c>
       <c r="E112" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="113">
@@ -2357,16 +2357,16 @@
         <v>2</v>
       </c>
       <c r="B113" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C113" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D113" t="n">
-        <v>134.937022347464</v>
+        <v>335.9315406448165</v>
       </c>
       <c r="E113" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="114">
@@ -2374,16 +2374,16 @@
         <v>2</v>
       </c>
       <c r="B114" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C114" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D114" t="n">
-        <v>264.7413832403238</v>
+        <v>114.5425685062108</v>
       </c>
       <c r="E114" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="115">
@@ -2391,16 +2391,16 @@
         <v>2</v>
       </c>
       <c r="B115" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C115" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D115" t="n">
-        <v>264.7413832403238</v>
+        <v>114.5425685062108</v>
       </c>
       <c r="E115" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="116">
@@ -2408,16 +2408,16 @@
         <v>2</v>
       </c>
       <c r="B116" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C116" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D116" t="n">
-        <v>96.21330469326995</v>
+        <v>359.8694207625871</v>
       </c>
       <c r="E116" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="117">
@@ -2425,16 +2425,16 @@
         <v>2</v>
       </c>
       <c r="B117" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C117" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D117" t="n">
-        <v>96.21330469326995</v>
+        <v>359.8694207625871</v>
       </c>
       <c r="E117" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="118">
@@ -2445,13 +2445,13 @@
         <v>7</v>
       </c>
       <c r="C118" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D118" t="n">
-        <v>135.7239846158371</v>
+        <v>158.0031645252714</v>
       </c>
       <c r="E118" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="119">
@@ -2459,16 +2459,16 @@
         <v>2</v>
       </c>
       <c r="B119" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C119" t="n">
         <v>7</v>
       </c>
       <c r="D119" t="n">
-        <v>135.7239846158371</v>
+        <v>158.0031645252714</v>
       </c>
       <c r="E119" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="120">
@@ -2476,16 +2476,16 @@
         <v>2</v>
       </c>
       <c r="B120" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C120" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D120" t="n">
-        <v>42.94182110716778</v>
+        <v>171.4059508885266</v>
       </c>
       <c r="E120" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="121">
@@ -2493,16 +2493,16 @@
         <v>2</v>
       </c>
       <c r="B121" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C121" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D121" t="n">
-        <v>42.94182110716778</v>
+        <v>171.4059508885266</v>
       </c>
       <c r="E121" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="122">
@@ -2510,16 +2510,16 @@
         <v>2</v>
       </c>
       <c r="B122" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C122" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D122" t="n">
-        <v>457.5947989214912</v>
+        <v>194.0927613281856</v>
       </c>
       <c r="E122" t="n">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="123">
@@ -2527,16 +2527,16 @@
         <v>2</v>
       </c>
       <c r="B123" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C123" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D123" t="n">
-        <v>457.5947989214912</v>
+        <v>194.0927613281856</v>
       </c>
       <c r="E123" t="n">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="124">
@@ -2544,13 +2544,13 @@
         <v>2</v>
       </c>
       <c r="B124" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C124" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D124" t="n">
-        <v>98.00510190801293</v>
+        <v>75.23961722390672</v>
       </c>
       <c r="E124" t="n">
         <v>5</v>
@@ -2561,13 +2561,13 @@
         <v>2</v>
       </c>
       <c r="B125" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C125" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D125" t="n">
-        <v>98.00510190801293</v>
+        <v>75.23961722390672</v>
       </c>
       <c r="E125" t="n">
         <v>5</v>
@@ -2578,16 +2578,16 @@
         <v>2</v>
       </c>
       <c r="B126" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C126" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D126" t="n">
-        <v>267.4864482548602</v>
+        <v>396.3647310243433</v>
       </c>
       <c r="E126" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="127">
@@ -2595,16 +2595,16 @@
         <v>2</v>
       </c>
       <c r="B127" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C127" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D127" t="n">
-        <v>267.4864482548602</v>
+        <v>396.3647310243433</v>
       </c>
       <c r="E127" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="128">
@@ -2612,16 +2612,16 @@
         <v>2</v>
       </c>
       <c r="B128" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C128" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D128" t="n">
-        <v>52.80151512977634</v>
+        <v>226.2962659877533</v>
       </c>
       <c r="E128" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="129">
@@ -2629,16 +2629,84 @@
         <v>2</v>
       </c>
       <c r="B129" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C129" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D129" t="n">
-        <v>52.80151512977634</v>
+        <v>226.2962659877533</v>
       </c>
       <c r="E129" t="n">
-        <v>7</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>2</v>
+      </c>
+      <c r="B130" t="n">
+        <v>10</v>
+      </c>
+      <c r="C130" t="n">
+        <v>19</v>
+      </c>
+      <c r="D130" t="n">
+        <v>341.6021077218348</v>
+      </c>
+      <c r="E130" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>2</v>
+      </c>
+      <c r="B131" t="n">
+        <v>19</v>
+      </c>
+      <c r="C131" t="n">
+        <v>10</v>
+      </c>
+      <c r="D131" t="n">
+        <v>341.6021077218348</v>
+      </c>
+      <c r="E131" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>2</v>
+      </c>
+      <c r="B132" t="n">
+        <v>2</v>
+      </c>
+      <c r="C132" t="n">
+        <v>8</v>
+      </c>
+      <c r="D132" t="n">
+        <v>321.0062304691297</v>
+      </c>
+      <c r="E132" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>2</v>
+      </c>
+      <c r="B133" t="n">
+        <v>8</v>
+      </c>
+      <c r="C133" t="n">
+        <v>2</v>
+      </c>
+      <c r="D133" t="n">
+        <v>321.0062304691297</v>
+      </c>
+      <c r="E133" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -2689,16 +2757,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1386</v>
+        <v>471</v>
       </c>
       <c r="B2" t="n">
-        <v>44</v>
+        <v>506</v>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E2" t="n">
         <v>3</v>
@@ -2706,50 +2774,50 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1065</v>
+        <v>662</v>
       </c>
       <c r="B3" t="n">
-        <v>123</v>
+        <v>459</v>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1047</v>
+        <v>1416</v>
       </c>
       <c r="B4" t="n">
-        <v>204</v>
+        <v>261</v>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D4" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>805</v>
+        <v>1491</v>
       </c>
       <c r="B5" t="n">
-        <v>355</v>
+        <v>267</v>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D5" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E5" t="n">
         <v>2</v>
@@ -2757,152 +2825,152 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1083</v>
+        <v>1413</v>
       </c>
       <c r="B6" t="n">
-        <v>296</v>
+        <v>399</v>
       </c>
       <c r="C6" t="n">
+        <v>15</v>
+      </c>
+      <c r="D6" t="n">
         <v>5</v>
       </c>
-      <c r="D6" t="n">
+      <c r="E6" t="n">
         <v>7</v>
-      </c>
-      <c r="E6" t="n">
-        <v>3</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1197</v>
+        <v>400</v>
       </c>
       <c r="B7" t="n">
-        <v>151</v>
+        <v>363</v>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D7" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E7" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1218</v>
+        <v>910</v>
       </c>
       <c r="B8" t="n">
-        <v>267</v>
+        <v>254</v>
       </c>
       <c r="C8" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D8" t="n">
         <v>3</v>
       </c>
       <c r="E8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>220</v>
+        <v>968</v>
       </c>
       <c r="B9" t="n">
-        <v>266</v>
+        <v>362</v>
       </c>
       <c r="C9" t="n">
         <v>5</v>
       </c>
       <c r="D9" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E9" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>843</v>
+        <v>402</v>
       </c>
       <c r="B10" t="n">
-        <v>335</v>
+        <v>193</v>
       </c>
       <c r="C10" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D10" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E10" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>548</v>
+        <v>1010</v>
       </c>
       <c r="B11" t="n">
-        <v>110</v>
+        <v>32</v>
       </c>
       <c r="C11" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E11" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>666</v>
+        <v>1392</v>
       </c>
       <c r="B12" t="n">
-        <v>318</v>
+        <v>149</v>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D12" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E12" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>46</v>
+        <v>259</v>
       </c>
       <c r="B13" t="n">
-        <v>206</v>
+        <v>431</v>
       </c>
       <c r="C13" t="n">
+        <v>15</v>
+      </c>
+      <c r="D13" t="n">
         <v>5</v>
       </c>
-      <c r="D13" t="n">
-        <v>10</v>
-      </c>
       <c r="E13" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>144</v>
+        <v>612</v>
       </c>
       <c r="B14" t="n">
-        <v>207</v>
+        <v>329</v>
       </c>
       <c r="C14" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E14" t="n">
         <v>8</v>
@@ -2910,33 +2978,33 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>233</v>
+        <v>6</v>
       </c>
       <c r="B15" t="n">
-        <v>466</v>
+        <v>210</v>
       </c>
       <c r="C15" t="n">
         <v>10</v>
       </c>
       <c r="D15" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E15" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>795</v>
+        <v>1405</v>
       </c>
       <c r="B16" t="n">
-        <v>75</v>
+        <v>441</v>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D16" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E16" t="n">
         <v>5</v>
@@ -2944,10 +3012,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>201</v>
+        <v>40</v>
       </c>
       <c r="B17" t="n">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="C17" t="n">
         <v>15</v>
@@ -2956,75 +3024,75 @@
         <v>8</v>
       </c>
       <c r="E17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>34</v>
+        <v>1037</v>
       </c>
       <c r="B18" t="n">
-        <v>101</v>
+        <v>348</v>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D18" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E18" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1185</v>
+        <v>1017</v>
       </c>
       <c r="B19" t="n">
-        <v>433</v>
+        <v>518</v>
       </c>
       <c r="C19" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D19" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E19" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>811</v>
+        <v>806</v>
       </c>
       <c r="B20" t="n">
-        <v>450</v>
+        <v>306</v>
       </c>
       <c r="C20" t="n">
         <v>10</v>
       </c>
       <c r="D20" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E20" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1348</v>
+        <v>1344</v>
       </c>
       <c r="B21" t="n">
-        <v>306</v>
+        <v>73</v>
       </c>
       <c r="C21" t="n">
+        <v>10</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" t="n">
         <v>5</v>
-      </c>
-      <c r="D21" t="n">
-        <v>7</v>
-      </c>
-      <c r="E21" t="n">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -3060,7 +3128,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="B2" t="n">
         <v>2</v>
@@ -3068,7 +3136,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="B3" t="n">
         <v>5</v>
@@ -3102,7 +3170,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -3147,7 +3215,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D63"/>
+  <dimension ref="A1:D61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3179,114 +3247,114 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C2" t="n">
-        <v>152.7612516314265</v>
+        <v>116.2755348299891</v>
       </c>
       <c r="D2" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B3" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C3" t="n">
-        <v>152.7612516314265</v>
+        <v>116.2755348299891</v>
       </c>
       <c r="D3" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C4" t="n">
-        <v>138.0796871375366</v>
+        <v>163.5145253486674</v>
       </c>
       <c r="D4" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C5" t="n">
-        <v>138.0796871375366</v>
+        <v>163.5145253486674</v>
       </c>
       <c r="D5" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="B6" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C6" t="n">
-        <v>143.8401890988746</v>
+        <v>379.5694929785585</v>
       </c>
       <c r="D6" t="n">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B7" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C7" t="n">
-        <v>143.8401890988746</v>
+        <v>379.5694929785585</v>
       </c>
       <c r="D7" t="n">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B8" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C8" t="n">
-        <v>312.5699921617557</v>
+        <v>628.9554833213556</v>
       </c>
       <c r="D8" t="n">
-        <v>19</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B9" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C9" t="n">
-        <v>312.5699921617557</v>
+        <v>628.9554833213556</v>
       </c>
       <c r="D9" t="n">
-        <v>19</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10">
@@ -3297,10 +3365,10 @@
         <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>217.1865557533431</v>
+        <v>159.6558799418299</v>
       </c>
       <c r="D10" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11">
@@ -3311,38 +3379,38 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>217.1865557533431</v>
+        <v>159.6558799418299</v>
       </c>
       <c r="D11" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C12" t="n">
-        <v>216.3931607052312</v>
+        <v>250.1919263285688</v>
       </c>
       <c r="D12" t="n">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B13" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C13" t="n">
-        <v>216.3931607052312</v>
+        <v>250.1919263285688</v>
       </c>
       <c r="D13" t="n">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14">
@@ -3353,10 +3421,10 @@
         <v>19</v>
       </c>
       <c r="C14" t="n">
-        <v>119.3691752505646</v>
+        <v>419.505661463585</v>
       </c>
       <c r="D14" t="n">
-        <v>20</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15">
@@ -3367,150 +3435,150 @@
         <v>9</v>
       </c>
       <c r="C15" t="n">
-        <v>119.3691752505646</v>
+        <v>419.505661463585</v>
       </c>
       <c r="D15" t="n">
-        <v>20</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="B16" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C16" t="n">
-        <v>374.3861642742691</v>
+        <v>224.8755211222422</v>
       </c>
       <c r="D16" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B17" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>374.3861642742691</v>
+        <v>224.8755211222422</v>
       </c>
       <c r="D17" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B18" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C18" t="n">
-        <v>159.0880259479009</v>
+        <v>546.1318522115332</v>
       </c>
       <c r="D18" t="n">
-        <v>23</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>159.0880259479009</v>
+        <v>546.1318522115332</v>
       </c>
       <c r="D19" t="n">
-        <v>23</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="B20" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C20" t="n">
-        <v>196.084165602427</v>
+        <v>139.2838827718412</v>
       </c>
       <c r="D20" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B21" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C21" t="n">
-        <v>196.084165602427</v>
+        <v>139.2838827718412</v>
       </c>
       <c r="D21" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B22" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C22" t="n">
-        <v>242.4396832203837</v>
+        <v>210.1071155387175</v>
       </c>
       <c r="D22" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>242.4396832203837</v>
+        <v>210.1071155387175</v>
       </c>
       <c r="D23" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B24" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C24" t="n">
-        <v>449.0211576306845</v>
+        <v>412.1577367950285</v>
       </c>
       <c r="D24" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B25" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C25" t="n">
-        <v>449.0211576306845</v>
+        <v>412.1577367950285</v>
       </c>
       <c r="D25" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26">
@@ -3518,489 +3586,489 @@
         <v>8</v>
       </c>
       <c r="B26" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C26" t="n">
-        <v>200.4220546746291</v>
+        <v>70.40596565632774</v>
       </c>
       <c r="D26" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B27" t="n">
         <v>8</v>
       </c>
       <c r="C27" t="n">
-        <v>200.4220546746291</v>
+        <v>70.40596565632774</v>
       </c>
       <c r="D27" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B28" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C28" t="n">
-        <v>169.2483382488584</v>
+        <v>42.7551166528639</v>
       </c>
       <c r="D28" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B29" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C29" t="n">
-        <v>169.2483382488584</v>
+        <v>42.7551166528639</v>
       </c>
       <c r="D29" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B30" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C30" t="n">
-        <v>184.4478246008881</v>
+        <v>214.7091055358389</v>
       </c>
       <c r="D30" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
+        <v>13</v>
+      </c>
+      <c r="B31" t="n">
         <v>6</v>
       </c>
-      <c r="B31" t="n">
-        <v>5</v>
-      </c>
       <c r="C31" t="n">
-        <v>184.4478246008881</v>
+        <v>214.7091055358389</v>
       </c>
       <c r="D31" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B32" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C32" t="n">
-        <v>117.8855377050128</v>
+        <v>277.6562623100729</v>
       </c>
       <c r="D32" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B33" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C33" t="n">
-        <v>117.8855377050128</v>
+        <v>277.6562623100729</v>
       </c>
       <c r="D33" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
+        <v>3</v>
+      </c>
+      <c r="B34" t="n">
         <v>5</v>
       </c>
-      <c r="B34" t="n">
-        <v>9</v>
-      </c>
       <c r="C34" t="n">
-        <v>243.1481030154256</v>
+        <v>138.0326048439281</v>
       </c>
       <c r="D34" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B35" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C35" t="n">
-        <v>243.1481030154256</v>
+        <v>138.0326048439281</v>
       </c>
       <c r="D35" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B36" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C36" t="n">
-        <v>224.3613157386986</v>
+        <v>1019.65680500843</v>
       </c>
       <c r="D36" t="n">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B37" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C37" t="n">
-        <v>224.3613157386986</v>
+        <v>1019.65680500843</v>
       </c>
       <c r="D37" t="n">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B38" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C38" t="n">
-        <v>170.8010538609174</v>
+        <v>336.5070578754627</v>
       </c>
       <c r="D38" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B39" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C39" t="n">
-        <v>170.8010538609174</v>
+        <v>336.5070578754627</v>
       </c>
       <c r="D39" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="B40" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C40" t="n">
-        <v>330.5782811982663</v>
+        <v>335.9315406448165</v>
       </c>
       <c r="D40" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="B41" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C41" t="n">
-        <v>330.5782811982663</v>
+        <v>335.9315406448165</v>
       </c>
       <c r="D41" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B42" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C42" t="n">
-        <v>82.97590011563598</v>
+        <v>114.5425685062108</v>
       </c>
       <c r="D42" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
+        <v>11</v>
+      </c>
+      <c r="B43" t="n">
         <v>3</v>
       </c>
-      <c r="B43" t="n">
-        <v>2</v>
-      </c>
       <c r="C43" t="n">
-        <v>82.97590011563598</v>
+        <v>114.5425685062108</v>
       </c>
       <c r="D43" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B44" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C44" t="n">
-        <v>105.6834897228512</v>
+        <v>359.8694207625871</v>
       </c>
       <c r="D44" t="n">
-        <v>20</v>
+        <v>34</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B45" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C45" t="n">
-        <v>105.6834897228512</v>
+        <v>359.8694207625871</v>
       </c>
       <c r="D45" t="n">
-        <v>20</v>
+        <v>34</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B46" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C46" t="n">
-        <v>134.937022347464</v>
+        <v>158.0031645252714</v>
       </c>
       <c r="D46" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B47" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C47" t="n">
-        <v>134.937022347464</v>
+        <v>158.0031645252714</v>
       </c>
       <c r="D47" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B48" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C48" t="n">
-        <v>264.7413832403238</v>
+        <v>171.4059508885266</v>
       </c>
       <c r="D48" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B49" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C49" t="n">
-        <v>264.7413832403238</v>
+        <v>171.4059508885266</v>
       </c>
       <c r="D49" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B50" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C50" t="n">
-        <v>96.21330469326995</v>
+        <v>396.3647310243433</v>
       </c>
       <c r="D50" t="n">
-        <v>19</v>
+        <v>33</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B51" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="n">
-        <v>96.21330469326995</v>
+        <v>396.3647310243433</v>
       </c>
       <c r="D51" t="n">
-        <v>19</v>
+        <v>33</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B52" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C52" t="n">
-        <v>135.7239846158371</v>
+        <v>226.2962659877533</v>
       </c>
       <c r="D52" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B53" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C53" t="n">
-        <v>135.7239846158371</v>
+        <v>226.2962659877533</v>
       </c>
       <c r="D53" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B54" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C54" t="n">
-        <v>42.94182110716778</v>
+        <v>341.6021077218348</v>
       </c>
       <c r="D54" t="n">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B55" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C55" t="n">
-        <v>42.94182110716778</v>
+        <v>341.6021077218348</v>
       </c>
       <c r="D55" t="n">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B56" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C56" t="n">
-        <v>457.5947989214912</v>
+        <v>219.0022830931221</v>
       </c>
       <c r="D56" t="n">
-        <v>38</v>
+        <v>15</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B57" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C57" t="n">
-        <v>457.5947989214912</v>
+        <v>219.0022830931221</v>
       </c>
       <c r="D57" t="n">
-        <v>38</v>
+        <v>15</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B58" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C58" t="n">
-        <v>98.00510190801293</v>
+        <v>321.0062304691297</v>
       </c>
       <c r="D58" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B59" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C59" t="n">
-        <v>98.00510190801293</v>
+        <v>321.0062304691297</v>
       </c>
       <c r="D59" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="B60" t="n">
         <v>16</v>
       </c>
       <c r="C60" t="n">
-        <v>267.4864482548602</v>
+        <v>437.6494030614003</v>
       </c>
       <c r="D60" t="n">
-        <v>29</v>
+        <v>39</v>
       </c>
     </row>
     <row r="61">
@@ -4008,41 +4076,13 @@
         <v>16</v>
       </c>
       <c r="B61" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C61" t="n">
-        <v>267.4864482548602</v>
+        <v>437.6494030614003</v>
       </c>
       <c r="D61" t="n">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="n">
-        <v>14</v>
-      </c>
-      <c r="B62" t="n">
-        <v>16</v>
-      </c>
-      <c r="C62" t="n">
-        <v>52.80151512977634</v>
-      </c>
-      <c r="D62" t="n">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="n">
-        <v>16</v>
-      </c>
-      <c r="B63" t="n">
-        <v>14</v>
-      </c>
-      <c r="C63" t="n">
-        <v>52.80151512977634</v>
-      </c>
-      <c r="D63" t="n">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/randomPlanarGraph/data/FFP_n20_no1.xlsx
+++ b/randomPlanarGraph/data/FFP_n20_no1.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E133"/>
+  <dimension ref="A1:E129"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,10 +473,10 @@
         <v>7</v>
       </c>
       <c r="C2" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D2" t="n">
-        <v>116.2755348299891</v>
+        <v>288.2256060796819</v>
       </c>
       <c r="E2" t="n">
         <v>9</v>
@@ -487,13 +487,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C3" t="n">
         <v>7</v>
       </c>
       <c r="D3" t="n">
-        <v>116.2755348299891</v>
+        <v>288.2256060796819</v>
       </c>
       <c r="E3" t="n">
         <v>9</v>
@@ -504,16 +504,16 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D4" t="n">
-        <v>163.5145253486674</v>
+        <v>176.1391495380854</v>
       </c>
       <c r="E4" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -521,16 +521,16 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C5" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D5" t="n">
-        <v>163.5145253486674</v>
+        <v>176.1391495380854</v>
       </c>
       <c r="E5" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -538,16 +538,16 @@
         <v>1</v>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D6" t="n">
-        <v>153.3231880701676</v>
+        <v>903.7173230607013</v>
       </c>
       <c r="E6" t="n">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7">
@@ -555,16 +555,16 @@
         <v>1</v>
       </c>
       <c r="B7" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>153.3231880701676</v>
+        <v>903.7173230607013</v>
       </c>
       <c r="E7" t="n">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8">
@@ -575,13 +575,13 @@
         <v>4</v>
       </c>
       <c r="C8" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D8" t="n">
-        <v>154.0292180074936</v>
+        <v>89.00561780022652</v>
       </c>
       <c r="E8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
@@ -589,16 +589,16 @@
         <v>1</v>
       </c>
       <c r="B9" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C9" t="n">
         <v>4</v>
       </c>
       <c r="D9" t="n">
-        <v>154.0292180074936</v>
+        <v>89.00561780022652</v>
       </c>
       <c r="E9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -606,16 +606,16 @@
         <v>1</v>
       </c>
       <c r="B10" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C10" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D10" t="n">
-        <v>379.5694929785585</v>
+        <v>456.9212185924396</v>
       </c>
       <c r="E10" t="n">
-        <v>5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11">
@@ -623,16 +623,16 @@
         <v>1</v>
       </c>
       <c r="B11" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C11" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
-        <v>379.5694929785585</v>
+        <v>456.9212185924396</v>
       </c>
       <c r="E11" t="n">
-        <v>5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12">
@@ -640,16 +640,16 @@
         <v>1</v>
       </c>
       <c r="B12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C12" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D12" t="n">
-        <v>243.402958075698</v>
+        <v>264.7640458974745</v>
       </c>
       <c r="E12" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13">
@@ -657,16 +657,16 @@
         <v>1</v>
       </c>
       <c r="B13" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
-        <v>243.402958075698</v>
+        <v>264.7640458974745</v>
       </c>
       <c r="E13" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14">
@@ -674,16 +674,16 @@
         <v>1</v>
       </c>
       <c r="B14" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C14" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D14" t="n">
-        <v>628.9554833213556</v>
+        <v>255.2273496316568</v>
       </c>
       <c r="E14" t="n">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15">
@@ -691,16 +691,16 @@
         <v>1</v>
       </c>
       <c r="B15" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C15" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D15" t="n">
-        <v>628.9554833213556</v>
+        <v>255.2273496316568</v>
       </c>
       <c r="E15" t="n">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16">
@@ -708,16 +708,16 @@
         <v>1</v>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C16" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D16" t="n">
-        <v>159.6558799418299</v>
+        <v>59.4810894318522</v>
       </c>
       <c r="E16" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17">
@@ -725,16 +725,16 @@
         <v>1</v>
       </c>
       <c r="B17" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D17" t="n">
-        <v>159.6558799418299</v>
+        <v>59.4810894318522</v>
       </c>
       <c r="E17" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18">
@@ -742,16 +742,16 @@
         <v>1</v>
       </c>
       <c r="B18" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C18" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D18" t="n">
-        <v>250.1919263285688</v>
+        <v>128.4133949399361</v>
       </c>
       <c r="E18" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19">
@@ -759,16 +759,16 @@
         <v>1</v>
       </c>
       <c r="B19" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C19" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D19" t="n">
-        <v>250.1919263285688</v>
+        <v>128.4133949399361</v>
       </c>
       <c r="E19" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20">
@@ -776,16 +776,16 @@
         <v>1</v>
       </c>
       <c r="B20" t="n">
+        <v>8</v>
+      </c>
+      <c r="C20" t="n">
+        <v>17</v>
+      </c>
+      <c r="D20" t="n">
+        <v>160.3776792449623</v>
+      </c>
+      <c r="E20" t="n">
         <v>9</v>
-      </c>
-      <c r="C20" t="n">
-        <v>19</v>
-      </c>
-      <c r="D20" t="n">
-        <v>419.505661463585</v>
-      </c>
-      <c r="E20" t="n">
-        <v>23</v>
       </c>
     </row>
     <row r="21">
@@ -793,16 +793,16 @@
         <v>1</v>
       </c>
       <c r="B21" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C21" t="n">
+        <v>8</v>
+      </c>
+      <c r="D21" t="n">
+        <v>160.3776792449623</v>
+      </c>
+      <c r="E21" t="n">
         <v>9</v>
-      </c>
-      <c r="D21" t="n">
-        <v>419.505661463585</v>
-      </c>
-      <c r="E21" t="n">
-        <v>23</v>
       </c>
     </row>
     <row r="22">
@@ -810,16 +810,16 @@
         <v>1</v>
       </c>
       <c r="B22" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C22" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D22" t="n">
-        <v>224.8755211222422</v>
+        <v>123.664869708418</v>
       </c>
       <c r="E22" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23">
@@ -827,16 +827,16 @@
         <v>1</v>
       </c>
       <c r="B23" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C23" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D23" t="n">
-        <v>224.8755211222422</v>
+        <v>123.664869708418</v>
       </c>
       <c r="E23" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24">
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="B24" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C24" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D24" t="n">
-        <v>546.1318522115332</v>
+        <v>300.9601302498389</v>
       </c>
       <c r="E24" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25">
@@ -861,16 +861,16 @@
         <v>1</v>
       </c>
       <c r="B25" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C25" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
-        <v>546.1318522115332</v>
+        <v>300.9601302498389</v>
       </c>
       <c r="E25" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26">
@@ -878,16 +878,16 @@
         <v>1</v>
       </c>
       <c r="B26" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C26" t="n">
         <v>13</v>
       </c>
       <c r="D26" t="n">
-        <v>139.2838827718412</v>
+        <v>78.77182237323191</v>
       </c>
       <c r="E26" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27">
@@ -898,13 +898,13 @@
         <v>13</v>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
-        <v>139.2838827718412</v>
+        <v>78.77182237323191</v>
       </c>
       <c r="E27" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28">
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="B28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C28" t="n">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D28" t="n">
-        <v>210.1071155387175</v>
+        <v>107.5406899736095</v>
       </c>
       <c r="E28" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29">
@@ -929,16 +929,16 @@
         <v>1</v>
       </c>
       <c r="B29" t="n">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D29" t="n">
-        <v>210.1071155387175</v>
+        <v>107.5406899736095</v>
       </c>
       <c r="E29" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30">
@@ -946,16 +946,16 @@
         <v>1</v>
       </c>
       <c r="B30" t="n">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="C30" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
-        <v>412.1577367950285</v>
+        <v>397.7750620639761</v>
       </c>
       <c r="E30" t="n">
-        <v>24</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31">
@@ -963,16 +963,16 @@
         <v>1</v>
       </c>
       <c r="B31" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
-        <v>412.1577367950285</v>
+        <v>397.7750620639761</v>
       </c>
       <c r="E31" t="n">
-        <v>24</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32">
@@ -980,16 +980,16 @@
         <v>1</v>
       </c>
       <c r="B32" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C32" t="n">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
-        <v>70.40596565632774</v>
+        <v>197.9898987322333</v>
       </c>
       <c r="E32" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33">
@@ -997,16 +997,16 @@
         <v>1</v>
       </c>
       <c r="B33" t="n">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="C33" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
-        <v>70.40596565632774</v>
+        <v>197.9898987322333</v>
       </c>
       <c r="E33" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34">
@@ -1014,16 +1014,16 @@
         <v>1</v>
       </c>
       <c r="B34" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C34" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D34" t="n">
-        <v>42.7551166528639</v>
+        <v>366.1652632350589</v>
       </c>
       <c r="E34" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35">
@@ -1031,16 +1031,16 @@
         <v>1</v>
       </c>
       <c r="B35" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D35" t="n">
-        <v>42.7551166528639</v>
+        <v>366.1652632350589</v>
       </c>
       <c r="E35" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36">
@@ -1048,16 +1048,16 @@
         <v>1</v>
       </c>
       <c r="B36" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C36" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D36" t="n">
-        <v>214.7091055358389</v>
+        <v>68.42514157822401</v>
       </c>
       <c r="E36" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37">
@@ -1065,16 +1065,16 @@
         <v>1</v>
       </c>
       <c r="B37" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C37" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D37" t="n">
-        <v>214.7091055358389</v>
+        <v>68.42514157822401</v>
       </c>
       <c r="E37" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38">
@@ -1082,16 +1082,16 @@
         <v>1</v>
       </c>
       <c r="B38" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C38" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D38" t="n">
-        <v>277.6562623100729</v>
+        <v>731.464968402452</v>
       </c>
       <c r="E38" t="n">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="39">
@@ -1099,16 +1099,16 @@
         <v>1</v>
       </c>
       <c r="B39" t="n">
+        <v>17</v>
+      </c>
+      <c r="C39" t="n">
         <v>12</v>
       </c>
-      <c r="C39" t="n">
-        <v>9</v>
-      </c>
       <c r="D39" t="n">
-        <v>277.6562623100729</v>
+        <v>731.464968402452</v>
       </c>
       <c r="E39" t="n">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="40">
@@ -1116,16 +1116,16 @@
         <v>1</v>
       </c>
       <c r="B40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D40" t="n">
-        <v>138.0326048439281</v>
+        <v>355.7878581402126</v>
       </c>
       <c r="E40" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="41">
@@ -1133,16 +1133,16 @@
         <v>1</v>
       </c>
       <c r="B41" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
-        <v>138.0326048439281</v>
+        <v>355.7878581402126</v>
       </c>
       <c r="E41" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="42">
@@ -1150,16 +1150,16 @@
         <v>1</v>
       </c>
       <c r="B42" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C42" t="n">
         <v>14</v>
       </c>
       <c r="D42" t="n">
-        <v>1019.65680500843</v>
+        <v>98.79271228182775</v>
       </c>
       <c r="E42" t="n">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="43">
@@ -1170,13 +1170,13 @@
         <v>14</v>
       </c>
       <c r="C43" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
-        <v>1019.65680500843</v>
+        <v>98.79271228182775</v>
       </c>
       <c r="E43" t="n">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="44">
@@ -1184,16 +1184,16 @@
         <v>1</v>
       </c>
       <c r="B44" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C44" t="n">
         <v>20</v>
       </c>
       <c r="D44" t="n">
-        <v>336.5070578754627</v>
+        <v>112.6987133910587</v>
       </c>
       <c r="E44" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="45">
@@ -1204,13 +1204,13 @@
         <v>20</v>
       </c>
       <c r="C45" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D45" t="n">
-        <v>336.5070578754627</v>
+        <v>112.6987133910587</v>
       </c>
       <c r="E45" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="46">
@@ -1218,16 +1218,16 @@
         <v>1</v>
       </c>
       <c r="B46" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C46" t="n">
         <v>14</v>
       </c>
       <c r="D46" t="n">
-        <v>335.9315406448165</v>
+        <v>224.8288237748888</v>
       </c>
       <c r="E46" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="47">
@@ -1238,13 +1238,13 @@
         <v>14</v>
       </c>
       <c r="C47" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D47" t="n">
-        <v>335.9315406448165</v>
+        <v>224.8288237748888</v>
       </c>
       <c r="E47" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="48">
@@ -1252,16 +1252,16 @@
         <v>1</v>
       </c>
       <c r="B48" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C48" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D48" t="n">
-        <v>114.5425685062108</v>
+        <v>289.0847626562147</v>
       </c>
       <c r="E48" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="49">
@@ -1269,16 +1269,16 @@
         <v>1</v>
       </c>
       <c r="B49" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D49" t="n">
-        <v>114.5425685062108</v>
+        <v>289.0847626562147</v>
       </c>
       <c r="E49" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="50">
@@ -1286,16 +1286,16 @@
         <v>1</v>
       </c>
       <c r="B50" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C50" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D50" t="n">
-        <v>359.8694207625871</v>
+        <v>462.7148149778652</v>
       </c>
       <c r="E50" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51">
@@ -1303,16 +1303,16 @@
         <v>1</v>
       </c>
       <c r="B51" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
-        <v>359.8694207625871</v>
+        <v>462.7148149778652</v>
       </c>
       <c r="E51" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52">
@@ -1320,16 +1320,16 @@
         <v>1</v>
       </c>
       <c r="B52" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C52" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D52" t="n">
-        <v>158.0031645252714</v>
+        <v>537.5816217096711</v>
       </c>
       <c r="E52" t="n">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="53">
@@ -1337,16 +1337,16 @@
         <v>1</v>
       </c>
       <c r="B53" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C53" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
-        <v>158.0031645252714</v>
+        <v>537.5816217096711</v>
       </c>
       <c r="E53" t="n">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="54">
@@ -1354,16 +1354,16 @@
         <v>1</v>
       </c>
       <c r="B54" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C54" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D54" t="n">
-        <v>171.4059508885266</v>
+        <v>180.5685465411958</v>
       </c>
       <c r="E54" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="55">
@@ -1371,16 +1371,16 @@
         <v>1</v>
       </c>
       <c r="B55" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C55" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D55" t="n">
-        <v>171.4059508885266</v>
+        <v>180.5685465411958</v>
       </c>
       <c r="E55" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="56">
@@ -1388,16 +1388,16 @@
         <v>1</v>
       </c>
       <c r="B56" t="n">
+        <v>1</v>
+      </c>
+      <c r="C56" t="n">
         <v>4</v>
       </c>
-      <c r="C56" t="n">
-        <v>15</v>
-      </c>
       <c r="D56" t="n">
-        <v>194.0927613281856</v>
+        <v>144.8067677976413</v>
       </c>
       <c r="E56" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="57">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="B57" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D57" t="n">
-        <v>194.0927613281856</v>
+        <v>144.8067677976413</v>
       </c>
       <c r="E57" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="58">
@@ -1422,13 +1422,13 @@
         <v>1</v>
       </c>
       <c r="B58" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D58" t="n">
-        <v>75.23961722390672</v>
+        <v>222.0495440211486</v>
       </c>
       <c r="E58" t="n">
         <v>6</v>
@@ -1439,13 +1439,13 @@
         <v>1</v>
       </c>
       <c r="B59" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D59" t="n">
-        <v>75.23961722390672</v>
+        <v>222.0495440211486</v>
       </c>
       <c r="E59" t="n">
         <v>6</v>
@@ -1459,13 +1459,13 @@
         <v>9</v>
       </c>
       <c r="C60" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D60" t="n">
-        <v>396.3647310243433</v>
+        <v>106.5082156455548</v>
       </c>
       <c r="E60" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="B61" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C61" t="n">
         <v>9</v>
       </c>
       <c r="D61" t="n">
-        <v>396.3647310243433</v>
+        <v>106.5082156455548</v>
       </c>
       <c r="E61" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62">
@@ -1490,16 +1490,16 @@
         <v>1</v>
       </c>
       <c r="B62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C62" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D62" t="n">
-        <v>226.2962659877533</v>
+        <v>254.2439773131313</v>
       </c>
       <c r="E62" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="63">
@@ -1507,16 +1507,16 @@
         <v>1</v>
       </c>
       <c r="B63" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
-        <v>226.2962659877533</v>
+        <v>254.2439773131313</v>
       </c>
       <c r="E63" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="64">
@@ -1524,16 +1524,16 @@
         <v>1</v>
       </c>
       <c r="B64" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C64" t="n">
         <v>19</v>
       </c>
       <c r="D64" t="n">
-        <v>341.6021077218348</v>
+        <v>291.4326680384339</v>
       </c>
       <c r="E64" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="65">
@@ -1544,47 +1544,47 @@
         <v>19</v>
       </c>
       <c r="C65" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D65" t="n">
-        <v>341.6021077218348</v>
+        <v>291.4326680384339</v>
       </c>
       <c r="E65" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B66" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C66" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D66" t="n">
-        <v>321.0062304691297</v>
+        <v>288.2256060796819</v>
       </c>
       <c r="E66" t="n">
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B67" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D67" t="n">
-        <v>321.0062304691297</v>
+        <v>288.2256060796819</v>
       </c>
       <c r="E67" t="n">
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="68">
@@ -1595,13 +1595,13 @@
         <v>7</v>
       </c>
       <c r="C68" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D68" t="n">
-        <v>116.2755348299891</v>
+        <v>176.1391495380854</v>
       </c>
       <c r="E68" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="69">
@@ -1609,16 +1609,16 @@
         <v>2</v>
       </c>
       <c r="B69" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C69" t="n">
         <v>7</v>
       </c>
       <c r="D69" t="n">
-        <v>116.2755348299891</v>
+        <v>176.1391495380854</v>
       </c>
       <c r="E69" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="70">
@@ -1626,16 +1626,16 @@
         <v>2</v>
       </c>
       <c r="B70" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C70" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D70" t="n">
-        <v>163.5145253486674</v>
+        <v>903.7173230607013</v>
       </c>
       <c r="E70" t="n">
-        <v>9</v>
+        <v>24</v>
       </c>
     </row>
     <row r="71">
@@ -1643,16 +1643,16 @@
         <v>2</v>
       </c>
       <c r="B71" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C71" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
-        <v>163.5145253486674</v>
+        <v>903.7173230607013</v>
       </c>
       <c r="E71" t="n">
-        <v>9</v>
+        <v>24</v>
       </c>
     </row>
     <row r="72">
@@ -1663,13 +1663,13 @@
         <v>4</v>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D72" t="n">
-        <v>153.3231880701676</v>
+        <v>89.00561780022652</v>
       </c>
       <c r="E72" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="73">
@@ -1677,16 +1677,16 @@
         <v>2</v>
       </c>
       <c r="B73" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C73" t="n">
         <v>4</v>
       </c>
       <c r="D73" t="n">
-        <v>153.3231880701676</v>
+        <v>89.00561780022652</v>
       </c>
       <c r="E73" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="74">
@@ -1694,16 +1694,16 @@
         <v>2</v>
       </c>
       <c r="B74" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C74" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D74" t="n">
-        <v>154.0292180074936</v>
+        <v>456.9212185924396</v>
       </c>
       <c r="E74" t="n">
-        <v>5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="75">
@@ -1711,16 +1711,16 @@
         <v>2</v>
       </c>
       <c r="B75" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
-        <v>154.0292180074936</v>
+        <v>456.9212185924396</v>
       </c>
       <c r="E75" t="n">
-        <v>5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="76">
@@ -1728,16 +1728,16 @@
         <v>2</v>
       </c>
       <c r="B76" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="C76" t="n">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D76" t="n">
-        <v>379.5694929785585</v>
+        <v>264.7640458974745</v>
       </c>
       <c r="E76" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="77">
@@ -1745,16 +1745,16 @@
         <v>2</v>
       </c>
       <c r="B77" t="n">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C77" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
-        <v>379.5694929785585</v>
+        <v>264.7640458974745</v>
       </c>
       <c r="E77" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="78">
@@ -1762,16 +1762,16 @@
         <v>2</v>
       </c>
       <c r="B78" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="C78" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D78" t="n">
-        <v>243.402958075698</v>
+        <v>255.2273496316568</v>
       </c>
       <c r="E78" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="79">
@@ -1779,16 +1779,16 @@
         <v>2</v>
       </c>
       <c r="B79" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="D79" t="n">
-        <v>243.402958075698</v>
+        <v>255.2273496316568</v>
       </c>
       <c r="E79" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="80">
@@ -1799,13 +1799,13 @@
         <v>9</v>
       </c>
       <c r="C80" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D80" t="n">
-        <v>628.9554833213556</v>
+        <v>59.4810894318522</v>
       </c>
       <c r="E80" t="n">
-        <v>21</v>
+        <v>6</v>
       </c>
     </row>
     <row r="81">
@@ -1813,16 +1813,16 @@
         <v>2</v>
       </c>
       <c r="B81" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C81" t="n">
         <v>9</v>
       </c>
       <c r="D81" t="n">
-        <v>628.9554833213556</v>
+        <v>59.4810894318522</v>
       </c>
       <c r="E81" t="n">
-        <v>21</v>
+        <v>6</v>
       </c>
     </row>
     <row r="82">
@@ -1830,16 +1830,16 @@
         <v>2</v>
       </c>
       <c r="B82" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C82" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D82" t="n">
-        <v>159.6558799418299</v>
+        <v>128.4133949399361</v>
       </c>
       <c r="E82" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="83">
@@ -1847,16 +1847,16 @@
         <v>2</v>
       </c>
       <c r="B83" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C83" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D83" t="n">
-        <v>159.6558799418299</v>
+        <v>128.4133949399361</v>
       </c>
       <c r="E83" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="84">
@@ -1864,16 +1864,16 @@
         <v>2</v>
       </c>
       <c r="B84" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C84" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D84" t="n">
-        <v>250.1919263285688</v>
+        <v>160.3776792449623</v>
       </c>
       <c r="E84" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="85">
@@ -1881,16 +1881,16 @@
         <v>2</v>
       </c>
       <c r="B85" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C85" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D85" t="n">
-        <v>250.1919263285688</v>
+        <v>160.3776792449623</v>
       </c>
       <c r="E85" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="86">
@@ -1898,16 +1898,16 @@
         <v>2</v>
       </c>
       <c r="B86" t="n">
+        <v>7</v>
+      </c>
+      <c r="C86" t="n">
         <v>9</v>
       </c>
-      <c r="C86" t="n">
-        <v>19</v>
-      </c>
       <c r="D86" t="n">
-        <v>419.505661463585</v>
+        <v>123.664869708418</v>
       </c>
       <c r="E86" t="n">
-        <v>21</v>
+        <v>8</v>
       </c>
     </row>
     <row r="87">
@@ -1915,16 +1915,16 @@
         <v>2</v>
       </c>
       <c r="B87" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C87" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D87" t="n">
-        <v>419.505661463585</v>
+        <v>123.664869708418</v>
       </c>
       <c r="E87" t="n">
-        <v>21</v>
+        <v>8</v>
       </c>
     </row>
     <row r="88">
@@ -1932,16 +1932,16 @@
         <v>2</v>
       </c>
       <c r="B88" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C88" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D88" t="n">
-        <v>224.8755211222422</v>
+        <v>300.9601302498389</v>
       </c>
       <c r="E88" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="89">
@@ -1949,16 +1949,16 @@
         <v>2</v>
       </c>
       <c r="B89" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C89" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
-        <v>224.8755211222422</v>
+        <v>300.9601302498389</v>
       </c>
       <c r="E89" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="90">
@@ -1966,16 +1966,16 @@
         <v>2</v>
       </c>
       <c r="B90" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C90" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D90" t="n">
-        <v>546.1318522115332</v>
+        <v>78.77182237323191</v>
       </c>
       <c r="E90" t="n">
-        <v>21</v>
+        <v>8</v>
       </c>
     </row>
     <row r="91">
@@ -1983,16 +1983,16 @@
         <v>2</v>
       </c>
       <c r="B91" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C91" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
-        <v>546.1318522115332</v>
+        <v>78.77182237323191</v>
       </c>
       <c r="E91" t="n">
-        <v>21</v>
+        <v>8</v>
       </c>
     </row>
     <row r="92">
@@ -2000,16 +2000,16 @@
         <v>2</v>
       </c>
       <c r="B92" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C92" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D92" t="n">
-        <v>139.2838827718412</v>
+        <v>107.5406899736095</v>
       </c>
       <c r="E92" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="93">
@@ -2017,16 +2017,16 @@
         <v>2</v>
       </c>
       <c r="B93" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D93" t="n">
-        <v>139.2838827718412</v>
+        <v>107.5406899736095</v>
       </c>
       <c r="E93" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="94">
@@ -2034,16 +2034,16 @@
         <v>2</v>
       </c>
       <c r="B94" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C94" t="n">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
-        <v>210.1071155387175</v>
+        <v>397.7750620639761</v>
       </c>
       <c r="E94" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="95">
@@ -2051,16 +2051,16 @@
         <v>2</v>
       </c>
       <c r="B95" t="n">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
-        <v>210.1071155387175</v>
+        <v>397.7750620639761</v>
       </c>
       <c r="E95" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="96">
@@ -2068,16 +2068,16 @@
         <v>2</v>
       </c>
       <c r="B96" t="n">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="C96" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
-        <v>412.1577367950285</v>
+        <v>197.9898987322333</v>
       </c>
       <c r="E96" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="97">
@@ -2085,16 +2085,16 @@
         <v>2</v>
       </c>
       <c r="B97" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="C97" t="n">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
-        <v>412.1577367950285</v>
+        <v>197.9898987322333</v>
       </c>
       <c r="E97" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="98">
@@ -2102,16 +2102,16 @@
         <v>2</v>
       </c>
       <c r="B98" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C98" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D98" t="n">
-        <v>70.40596565632774</v>
+        <v>366.1652632350589</v>
       </c>
       <c r="E98" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="99">
@@ -2119,16 +2119,16 @@
         <v>2</v>
       </c>
       <c r="B99" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C99" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D99" t="n">
-        <v>70.40596565632774</v>
+        <v>366.1652632350589</v>
       </c>
       <c r="E99" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="100">
@@ -2136,13 +2136,13 @@
         <v>2</v>
       </c>
       <c r="B100" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C100" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D100" t="n">
-        <v>42.7551166528639</v>
+        <v>68.42514157822401</v>
       </c>
       <c r="E100" t="n">
         <v>7</v>
@@ -2153,13 +2153,13 @@
         <v>2</v>
       </c>
       <c r="B101" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D101" t="n">
-        <v>42.7551166528639</v>
+        <v>68.42514157822401</v>
       </c>
       <c r="E101" t="n">
         <v>7</v>
@@ -2170,16 +2170,16 @@
         <v>2</v>
       </c>
       <c r="B102" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C102" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D102" t="n">
-        <v>214.7091055358389</v>
+        <v>731.464968402452</v>
       </c>
       <c r="E102" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="103">
@@ -2187,16 +2187,16 @@
         <v>2</v>
       </c>
       <c r="B103" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C103" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D103" t="n">
-        <v>214.7091055358389</v>
+        <v>731.464968402452</v>
       </c>
       <c r="E103" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="104">
@@ -2204,16 +2204,16 @@
         <v>2</v>
       </c>
       <c r="B104" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C104" t="n">
         <v>12</v>
       </c>
       <c r="D104" t="n">
-        <v>277.6562623100729</v>
+        <v>355.7878581402126</v>
       </c>
       <c r="E104" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="105">
@@ -2224,13 +2224,13 @@
         <v>12</v>
       </c>
       <c r="C105" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D105" t="n">
-        <v>277.6562623100729</v>
+        <v>355.7878581402126</v>
       </c>
       <c r="E105" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="106">
@@ -2241,13 +2241,13 @@
         <v>3</v>
       </c>
       <c r="C106" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D106" t="n">
-        <v>138.0326048439281</v>
+        <v>98.79271228182775</v>
       </c>
       <c r="E106" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="107">
@@ -2255,16 +2255,16 @@
         <v>2</v>
       </c>
       <c r="B107" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C107" t="n">
         <v>3</v>
       </c>
       <c r="D107" t="n">
-        <v>138.0326048439281</v>
+        <v>98.79271228182775</v>
       </c>
       <c r="E107" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="108">
@@ -2272,16 +2272,16 @@
         <v>2</v>
       </c>
       <c r="B108" t="n">
+        <v>14</v>
+      </c>
+      <c r="C108" t="n">
+        <v>20</v>
+      </c>
+      <c r="D108" t="n">
+        <v>112.6987133910587</v>
+      </c>
+      <c r="E108" t="n">
         <v>10</v>
-      </c>
-      <c r="C108" t="n">
-        <v>14</v>
-      </c>
-      <c r="D108" t="n">
-        <v>1019.65680500843</v>
-      </c>
-      <c r="E108" t="n">
-        <v>22</v>
       </c>
     </row>
     <row r="109">
@@ -2289,16 +2289,16 @@
         <v>2</v>
       </c>
       <c r="B109" t="n">
+        <v>20</v>
+      </c>
+      <c r="C109" t="n">
         <v>14</v>
       </c>
-      <c r="C109" t="n">
+      <c r="D109" t="n">
+        <v>112.6987133910587</v>
+      </c>
+      <c r="E109" t="n">
         <v>10</v>
-      </c>
-      <c r="D109" t="n">
-        <v>1019.65680500843</v>
-      </c>
-      <c r="E109" t="n">
-        <v>22</v>
       </c>
     </row>
     <row r="110">
@@ -2306,16 +2306,16 @@
         <v>2</v>
       </c>
       <c r="B110" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C110" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D110" t="n">
-        <v>336.5070578754627</v>
+        <v>224.8288237748888</v>
       </c>
       <c r="E110" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="111">
@@ -2323,16 +2323,16 @@
         <v>2</v>
       </c>
       <c r="B111" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C111" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D111" t="n">
-        <v>336.5070578754627</v>
+        <v>224.8288237748888</v>
       </c>
       <c r="E111" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="112">
@@ -2340,16 +2340,16 @@
         <v>2</v>
       </c>
       <c r="B112" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C112" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D112" t="n">
-        <v>335.9315406448165</v>
+        <v>289.0847626562147</v>
       </c>
       <c r="E112" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="113">
@@ -2357,16 +2357,16 @@
         <v>2</v>
       </c>
       <c r="B113" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C113" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D113" t="n">
-        <v>335.9315406448165</v>
+        <v>289.0847626562147</v>
       </c>
       <c r="E113" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="114">
@@ -2374,16 +2374,16 @@
         <v>2</v>
       </c>
       <c r="B114" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C114" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D114" t="n">
-        <v>114.5425685062108</v>
+        <v>462.7148149778652</v>
       </c>
       <c r="E114" t="n">
-        <v>5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="115">
@@ -2391,16 +2391,16 @@
         <v>2</v>
       </c>
       <c r="B115" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C115" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D115" t="n">
-        <v>114.5425685062108</v>
+        <v>462.7148149778652</v>
       </c>
       <c r="E115" t="n">
-        <v>5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="116">
@@ -2408,16 +2408,16 @@
         <v>2</v>
       </c>
       <c r="B116" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C116" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D116" t="n">
-        <v>359.8694207625871</v>
+        <v>537.5816217096711</v>
       </c>
       <c r="E116" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="117">
@@ -2425,16 +2425,16 @@
         <v>2</v>
       </c>
       <c r="B117" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C117" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D117" t="n">
-        <v>359.8694207625871</v>
+        <v>537.5816217096711</v>
       </c>
       <c r="E117" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="118">
@@ -2442,13 +2442,13 @@
         <v>2</v>
       </c>
       <c r="B118" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C118" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D118" t="n">
-        <v>158.0031645252714</v>
+        <v>180.5685465411958</v>
       </c>
       <c r="E118" t="n">
         <v>9</v>
@@ -2459,13 +2459,13 @@
         <v>2</v>
       </c>
       <c r="B119" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C119" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D119" t="n">
-        <v>158.0031645252714</v>
+        <v>180.5685465411958</v>
       </c>
       <c r="E119" t="n">
         <v>9</v>
@@ -2476,16 +2476,16 @@
         <v>2</v>
       </c>
       <c r="B120" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C120" t="n">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="D120" t="n">
-        <v>171.4059508885266</v>
+        <v>144.8067677976413</v>
       </c>
       <c r="E120" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="121">
@@ -2493,16 +2493,16 @@
         <v>2</v>
       </c>
       <c r="B121" t="n">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="C121" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D121" t="n">
-        <v>171.4059508885266</v>
+        <v>144.8067677976413</v>
       </c>
       <c r="E121" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="122">
@@ -2510,16 +2510,16 @@
         <v>2</v>
       </c>
       <c r="B122" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C122" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D122" t="n">
-        <v>194.0927613281856</v>
+        <v>222.0495440211486</v>
       </c>
       <c r="E122" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="123">
@@ -2527,16 +2527,16 @@
         <v>2</v>
       </c>
       <c r="B123" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C123" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D123" t="n">
-        <v>194.0927613281856</v>
+        <v>222.0495440211486</v>
       </c>
       <c r="E123" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="124">
@@ -2544,16 +2544,16 @@
         <v>2</v>
       </c>
       <c r="B124" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C124" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="D124" t="n">
-        <v>75.23961722390672</v>
+        <v>106.5082156455548</v>
       </c>
       <c r="E124" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="125">
@@ -2561,16 +2561,16 @@
         <v>2</v>
       </c>
       <c r="B125" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="C125" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D125" t="n">
-        <v>75.23961722390672</v>
+        <v>106.5082156455548</v>
       </c>
       <c r="E125" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="126">
@@ -2578,16 +2578,16 @@
         <v>2</v>
       </c>
       <c r="B126" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C126" t="n">
         <v>14</v>
       </c>
       <c r="D126" t="n">
-        <v>396.3647310243433</v>
+        <v>254.2439773131313</v>
       </c>
       <c r="E126" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="127">
@@ -2598,13 +2598,13 @@
         <v>14</v>
       </c>
       <c r="C127" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D127" t="n">
-        <v>396.3647310243433</v>
+        <v>254.2439773131313</v>
       </c>
       <c r="E127" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="128">
@@ -2612,16 +2612,16 @@
         <v>2</v>
       </c>
       <c r="B128" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C128" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D128" t="n">
-        <v>226.2962659877533</v>
+        <v>291.4326680384339</v>
       </c>
       <c r="E128" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="129">
@@ -2629,84 +2629,16 @@
         <v>2</v>
       </c>
       <c r="B129" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C129" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D129" t="n">
-        <v>226.2962659877533</v>
+        <v>291.4326680384339</v>
       </c>
       <c r="E129" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="n">
-        <v>2</v>
-      </c>
-      <c r="B130" t="n">
-        <v>10</v>
-      </c>
-      <c r="C130" t="n">
-        <v>19</v>
-      </c>
-      <c r="D130" t="n">
-        <v>341.6021077218348</v>
-      </c>
-      <c r="E130" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="n">
-        <v>2</v>
-      </c>
-      <c r="B131" t="n">
-        <v>19</v>
-      </c>
-      <c r="C131" t="n">
-        <v>10</v>
-      </c>
-      <c r="D131" t="n">
-        <v>341.6021077218348</v>
-      </c>
-      <c r="E131" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="n">
-        <v>2</v>
-      </c>
-      <c r="B132" t="n">
-        <v>2</v>
-      </c>
-      <c r="C132" t="n">
-        <v>8</v>
-      </c>
-      <c r="D132" t="n">
-        <v>321.0062304691297</v>
-      </c>
-      <c r="E132" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="n">
-        <v>2</v>
-      </c>
-      <c r="B133" t="n">
-        <v>8</v>
-      </c>
-      <c r="C133" t="n">
-        <v>2</v>
-      </c>
-      <c r="D133" t="n">
-        <v>321.0062304691297</v>
-      </c>
-      <c r="E133" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -2757,50 +2689,50 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>471</v>
+        <v>1069</v>
       </c>
       <c r="B2" t="n">
-        <v>506</v>
+        <v>424</v>
       </c>
       <c r="C2" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>2</v>
       </c>
       <c r="E2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>662</v>
+        <v>621</v>
       </c>
       <c r="B3" t="n">
-        <v>459</v>
+        <v>374</v>
       </c>
       <c r="C3" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D3" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E3" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1416</v>
+        <v>593</v>
       </c>
       <c r="B4" t="n">
-        <v>261</v>
+        <v>178</v>
       </c>
       <c r="C4" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D4" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E4" t="n">
         <v>4</v>
@@ -2808,50 +2740,50 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1491</v>
+        <v>1106</v>
       </c>
       <c r="B5" t="n">
-        <v>267</v>
+        <v>284</v>
       </c>
       <c r="C5" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E5" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1413</v>
+        <v>225</v>
       </c>
       <c r="B6" t="n">
-        <v>399</v>
+        <v>27</v>
       </c>
       <c r="C6" t="n">
         <v>15</v>
       </c>
       <c r="D6" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E6" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>400</v>
+        <v>509</v>
       </c>
       <c r="B7" t="n">
-        <v>363</v>
+        <v>393</v>
       </c>
       <c r="C7" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E7" t="n">
         <v>4</v>
@@ -2859,44 +2791,44 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>910</v>
+        <v>859</v>
       </c>
       <c r="B8" t="n">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="C8" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E8" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>968</v>
+        <v>1027</v>
       </c>
       <c r="B9" t="n">
-        <v>362</v>
+        <v>325</v>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D9" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E9" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>402</v>
+        <v>822</v>
       </c>
       <c r="B10" t="n">
-        <v>193</v>
+        <v>140</v>
       </c>
       <c r="C10" t="n">
         <v>15</v>
@@ -2910,189 +2842,189 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1010</v>
+        <v>1128</v>
       </c>
       <c r="B11" t="n">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D11" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E11" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1392</v>
+        <v>286</v>
       </c>
       <c r="B12" t="n">
-        <v>149</v>
+        <v>201</v>
       </c>
       <c r="C12" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E12" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>259</v>
+        <v>309</v>
       </c>
       <c r="B13" t="n">
-        <v>431</v>
+        <v>545</v>
       </c>
       <c r="C13" t="n">
         <v>15</v>
       </c>
       <c r="D13" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>612</v>
+        <v>1144</v>
       </c>
       <c r="B14" t="n">
-        <v>329</v>
+        <v>215</v>
       </c>
       <c r="C14" t="n">
         <v>5</v>
       </c>
       <c r="D14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E14" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>6</v>
+        <v>677</v>
       </c>
       <c r="B15" t="n">
-        <v>210</v>
+        <v>126</v>
       </c>
       <c r="C15" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>10</v>
       </c>
       <c r="E15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1405</v>
+        <v>141</v>
       </c>
       <c r="B16" t="n">
-        <v>441</v>
+        <v>316</v>
       </c>
       <c r="C16" t="n">
         <v>10</v>
       </c>
       <c r="D16" t="n">
+        <v>4</v>
+      </c>
+      <c r="E16" t="n">
         <v>10</v>
-      </c>
-      <c r="E16" t="n">
-        <v>5</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>40</v>
+        <v>839</v>
       </c>
       <c r="B17" t="n">
-        <v>430</v>
+        <v>83</v>
       </c>
       <c r="C17" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E17" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="B18" t="n">
-        <v>348</v>
+        <v>485</v>
       </c>
       <c r="C18" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D18" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E18" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1017</v>
+        <v>290</v>
       </c>
       <c r="B19" t="n">
-        <v>518</v>
+        <v>418</v>
       </c>
       <c r="C19" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>4</v>
       </c>
       <c r="E19" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>806</v>
+        <v>36</v>
       </c>
       <c r="B20" t="n">
-        <v>306</v>
+        <v>443</v>
       </c>
       <c r="C20" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D20" t="n">
         <v>7</v>
       </c>
       <c r="E20" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1344</v>
+        <v>762</v>
       </c>
       <c r="B21" t="n">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="C21" t="n">
         <v>10</v>
       </c>
       <c r="D21" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E21" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -3128,7 +3060,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B2" t="n">
         <v>2</v>
@@ -3136,7 +3068,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B3" t="n">
         <v>5</v>
@@ -3170,7 +3102,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -3215,7 +3147,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D61"/>
+  <dimension ref="A1:D65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3250,346 +3182,346 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
+        <v>13</v>
+      </c>
+      <c r="C2" t="n">
+        <v>288.2256060796819</v>
+      </c>
+      <c r="D2" t="n">
         <v>19</v>
-      </c>
-      <c r="C2" t="n">
-        <v>116.2755348299891</v>
-      </c>
-      <c r="D2" t="n">
-        <v>20</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
+        <v>13</v>
+      </c>
+      <c r="B3" t="n">
+        <v>7</v>
+      </c>
+      <c r="C3" t="n">
+        <v>288.2256060796819</v>
+      </c>
+      <c r="D3" t="n">
         <v>19</v>
-      </c>
-      <c r="B3" t="n">
-        <v>7</v>
-      </c>
-      <c r="C3" t="n">
-        <v>116.2755348299891</v>
-      </c>
-      <c r="D3" t="n">
-        <v>20</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C4" t="n">
-        <v>163.5145253486674</v>
+        <v>176.1391495380854</v>
       </c>
       <c r="D4" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B5" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" t="n">
-        <v>163.5145253486674</v>
+        <v>176.1391495380854</v>
       </c>
       <c r="D5" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C6" t="n">
-        <v>379.5694929785585</v>
+        <v>903.7173230607013</v>
       </c>
       <c r="D6" t="n">
-        <v>26</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B7" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>379.5694929785585</v>
+        <v>903.7173230607013</v>
       </c>
       <c r="D7" t="n">
-        <v>26</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C8" t="n">
-        <v>628.9554833213556</v>
+        <v>89.00561780022652</v>
       </c>
       <c r="D8" t="n">
-        <v>37</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C9" t="n">
-        <v>628.9554833213556</v>
+        <v>89.00561780022652</v>
       </c>
       <c r="D9" t="n">
-        <v>37</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B10" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C10" t="n">
-        <v>159.6558799418299</v>
+        <v>294.2668856667362</v>
       </c>
       <c r="D10" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
+        <v>11</v>
+      </c>
+      <c r="B11" t="n">
         <v>6</v>
       </c>
-      <c r="B11" t="n">
-        <v>1</v>
-      </c>
       <c r="C11" t="n">
-        <v>159.6558799418299</v>
+        <v>294.2668856667362</v>
       </c>
       <c r="D11" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B12" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C12" t="n">
-        <v>250.1919263285688</v>
+        <v>456.9212185924396</v>
       </c>
       <c r="D12" t="n">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B13" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C13" t="n">
-        <v>250.1919263285688</v>
+        <v>456.9212185924396</v>
       </c>
       <c r="D13" t="n">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B14" t="n">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C14" t="n">
-        <v>419.505661463585</v>
+        <v>264.7640458974745</v>
       </c>
       <c r="D14" t="n">
-        <v>37</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B15" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C15" t="n">
-        <v>419.505661463585</v>
+        <v>264.7640458974745</v>
       </c>
       <c r="D15" t="n">
-        <v>37</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B16" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C16" t="n">
-        <v>224.8755211222422</v>
+        <v>255.2273496316568</v>
       </c>
       <c r="D16" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B17" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="C17" t="n">
-        <v>224.8755211222422</v>
+        <v>255.2273496316568</v>
       </c>
       <c r="D17" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B18" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C18" t="n">
-        <v>546.1318522115332</v>
+        <v>230.826774876746</v>
       </c>
       <c r="D18" t="n">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="B19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>546.1318522115332</v>
+        <v>230.826774876746</v>
       </c>
       <c r="D19" t="n">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B20" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C20" t="n">
-        <v>139.2838827718412</v>
+        <v>128.4133949399361</v>
       </c>
       <c r="D20" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C21" t="n">
-        <v>139.2838827718412</v>
+        <v>128.4133949399361</v>
       </c>
       <c r="D21" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B22" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C22" t="n">
-        <v>210.1071155387175</v>
+        <v>160.3776792449623</v>
       </c>
       <c r="D22" t="n">
-        <v>27</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B23" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C23" t="n">
-        <v>210.1071155387175</v>
+        <v>160.3776792449623</v>
       </c>
       <c r="D23" t="n">
-        <v>27</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B24" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C24" t="n">
-        <v>412.1577367950285</v>
+        <v>300.9601302498389</v>
       </c>
       <c r="D24" t="n">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B25" t="n">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C25" t="n">
-        <v>412.1577367950285</v>
+        <v>300.9601302498389</v>
       </c>
       <c r="D25" t="n">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B26" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C26" t="n">
-        <v>70.40596565632774</v>
+        <v>78.77182237323191</v>
       </c>
       <c r="D26" t="n">
         <v>19</v>
@@ -3597,13 +3529,13 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B27" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C27" t="n">
-        <v>70.40596565632774</v>
+        <v>78.77182237323191</v>
       </c>
       <c r="D27" t="n">
         <v>19</v>
@@ -3611,13 +3543,13 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B28" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C28" t="n">
-        <v>42.7551166528639</v>
+        <v>107.5406899736095</v>
       </c>
       <c r="D28" t="n">
         <v>15</v>
@@ -3625,13 +3557,13 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B29" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C29" t="n">
-        <v>42.7551166528639</v>
+        <v>107.5406899736095</v>
       </c>
       <c r="D29" t="n">
         <v>15</v>
@@ -3639,142 +3571,142 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B30" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C30" t="n">
-        <v>214.7091055358389</v>
+        <v>397.7750620639761</v>
       </c>
       <c r="D30" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B31" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C31" t="n">
-        <v>214.7091055358389</v>
+        <v>397.7750620639761</v>
       </c>
       <c r="D31" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B32" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C32" t="n">
-        <v>277.6562623100729</v>
+        <v>197.9898987322333</v>
       </c>
       <c r="D32" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B33" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>277.6562623100729</v>
+        <v>197.9898987322333</v>
       </c>
       <c r="D33" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B34" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C34" t="n">
-        <v>138.0326048439281</v>
+        <v>366.1652632350589</v>
       </c>
       <c r="D34" t="n">
-        <v>17</v>
+        <v>31</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="B35" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C35" t="n">
-        <v>138.0326048439281</v>
+        <v>366.1652632350589</v>
       </c>
       <c r="D35" t="n">
-        <v>17</v>
+        <v>31</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B36" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C36" t="n">
-        <v>1019.65680500843</v>
+        <v>68.42514157822401</v>
       </c>
       <c r="D36" t="n">
-        <v>35</v>
+        <v>15</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B37" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>1019.65680500843</v>
+        <v>68.42514157822401</v>
       </c>
       <c r="D37" t="n">
-        <v>35</v>
+        <v>15</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B38" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="C38" t="n">
-        <v>336.5070578754627</v>
+        <v>113.6001760562016</v>
       </c>
       <c r="D38" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="B39" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C39" t="n">
-        <v>336.5070578754627</v>
+        <v>113.6001760562016</v>
       </c>
       <c r="D39" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40">
@@ -3782,38 +3714,38 @@
         <v>12</v>
       </c>
       <c r="B40" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C40" t="n">
-        <v>335.9315406448165</v>
+        <v>731.464968402452</v>
       </c>
       <c r="D40" t="n">
-        <v>26</v>
+        <v>39</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B41" t="n">
         <v>12</v>
       </c>
       <c r="C41" t="n">
-        <v>335.9315406448165</v>
+        <v>731.464968402452</v>
       </c>
       <c r="D41" t="n">
-        <v>26</v>
+        <v>39</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B42" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C42" t="n">
-        <v>114.5425685062108</v>
+        <v>355.7878581402126</v>
       </c>
       <c r="D42" t="n">
         <v>22</v>
@@ -3821,13 +3753,13 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>114.5425685062108</v>
+        <v>355.7878581402126</v>
       </c>
       <c r="D43" t="n">
         <v>22</v>
@@ -3835,226 +3767,226 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B44" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C44" t="n">
-        <v>359.8694207625871</v>
+        <v>98.79271228182775</v>
       </c>
       <c r="D44" t="n">
-        <v>34</v>
+        <v>17</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B45" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C45" t="n">
-        <v>359.8694207625871</v>
+        <v>98.79271228182775</v>
       </c>
       <c r="D45" t="n">
-        <v>34</v>
+        <v>17</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B46" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C46" t="n">
-        <v>158.0031645252714</v>
+        <v>112.6987133910587</v>
       </c>
       <c r="D46" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B47" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C47" t="n">
-        <v>158.0031645252714</v>
+        <v>112.6987133910587</v>
       </c>
       <c r="D47" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B48" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C48" t="n">
-        <v>171.4059508885266</v>
+        <v>224.8288237748888</v>
       </c>
       <c r="D48" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B49" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C49" t="n">
-        <v>171.4059508885266</v>
+        <v>224.8288237748888</v>
       </c>
       <c r="D49" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B50" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C50" t="n">
-        <v>396.3647310243433</v>
+        <v>289.0847626562147</v>
       </c>
       <c r="D50" t="n">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B51" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C51" t="n">
-        <v>396.3647310243433</v>
+        <v>289.0847626562147</v>
       </c>
       <c r="D51" t="n">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B52" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C52" t="n">
-        <v>226.2962659877533</v>
+        <v>462.7148149778652</v>
       </c>
       <c r="D52" t="n">
-        <v>28</v>
+        <v>35</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B53" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C53" t="n">
-        <v>226.2962659877533</v>
+        <v>462.7148149778652</v>
       </c>
       <c r="D53" t="n">
-        <v>28</v>
+        <v>35</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B54" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C54" t="n">
-        <v>341.6021077218348</v>
+        <v>537.5816217096711</v>
       </c>
       <c r="D54" t="n">
-        <v>27</v>
+        <v>35</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B55" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C55" t="n">
-        <v>341.6021077218348</v>
+        <v>537.5816217096711</v>
       </c>
       <c r="D55" t="n">
-        <v>27</v>
+        <v>35</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B56" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C56" t="n">
-        <v>219.0022830931221</v>
+        <v>180.5685465411958</v>
       </c>
       <c r="D56" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B57" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C57" t="n">
-        <v>219.0022830931221</v>
+        <v>180.5685465411958</v>
       </c>
       <c r="D57" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B58" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C58" t="n">
-        <v>321.0062304691297</v>
+        <v>144.8067677976413</v>
       </c>
       <c r="D58" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B59" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C59" t="n">
-        <v>321.0062304691297</v>
+        <v>144.8067677976413</v>
       </c>
       <c r="D59" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="60">
@@ -4062,27 +3994,83 @@
         <v>1</v>
       </c>
       <c r="B60" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C60" t="n">
-        <v>437.6494030614003</v>
+        <v>222.0495440211486</v>
       </c>
       <c r="D60" t="n">
-        <v>39</v>
+        <v>20</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B61" t="n">
         <v>1</v>
       </c>
       <c r="C61" t="n">
-        <v>437.6494030614003</v>
+        <v>222.0495440211486</v>
       </c>
       <c r="D61" t="n">
-        <v>39</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>2</v>
+      </c>
+      <c r="B62" t="n">
+        <v>14</v>
+      </c>
+      <c r="C62" t="n">
+        <v>254.2439773131313</v>
+      </c>
+      <c r="D62" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>14</v>
+      </c>
+      <c r="B63" t="n">
+        <v>2</v>
+      </c>
+      <c r="C63" t="n">
+        <v>254.2439773131313</v>
+      </c>
+      <c r="D63" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>12</v>
+      </c>
+      <c r="B64" t="n">
+        <v>19</v>
+      </c>
+      <c r="C64" t="n">
+        <v>291.4326680384339</v>
+      </c>
+      <c r="D64" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>19</v>
+      </c>
+      <c r="B65" t="n">
+        <v>12</v>
+      </c>
+      <c r="C65" t="n">
+        <v>291.4326680384339</v>
+      </c>
+      <c r="D65" t="n">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/randomPlanarGraph/data/FFP_n20_no1.xlsx
+++ b/randomPlanarGraph/data/FFP_n20_no1.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E129"/>
+  <dimension ref="A1:E125"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,16 +470,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D2" t="n">
-        <v>288.2256060796819</v>
+        <v>212.1508896988179</v>
       </c>
       <c r="E2" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3">
@@ -487,16 +487,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D3" t="n">
-        <v>288.2256060796819</v>
+        <v>212.1508896988179</v>
       </c>
       <c r="E3" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4">
@@ -504,16 +504,16 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C4" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D4" t="n">
-        <v>176.1391495380854</v>
+        <v>347.9669524538214</v>
       </c>
       <c r="E4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -521,16 +521,16 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C5" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D5" t="n">
-        <v>176.1391495380854</v>
+        <v>347.9669524538214</v>
       </c>
       <c r="E5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -538,16 +538,16 @@
         <v>1</v>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>903.7173230607013</v>
+        <v>134.2013412749664</v>
       </c>
       <c r="E6" t="n">
-        <v>24</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -555,16 +555,16 @@
         <v>1</v>
       </c>
       <c r="B7" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>903.7173230607013</v>
+        <v>134.2013412749664</v>
       </c>
       <c r="E7" t="n">
-        <v>24</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -572,16 +572,16 @@
         <v>1</v>
       </c>
       <c r="B8" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D8" t="n">
-        <v>89.00561780022652</v>
+        <v>182.4088813627231</v>
       </c>
       <c r="E8" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9">
@@ -589,16 +589,16 @@
         <v>1</v>
       </c>
       <c r="B9" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D9" t="n">
-        <v>89.00561780022652</v>
+        <v>182.4088813627231</v>
       </c>
       <c r="E9" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10">
@@ -606,16 +606,16 @@
         <v>1</v>
       </c>
       <c r="B10" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D10" t="n">
-        <v>456.9212185924396</v>
+        <v>170.0735135169495</v>
       </c>
       <c r="E10" t="n">
-        <v>22</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -623,16 +623,16 @@
         <v>1</v>
       </c>
       <c r="B11" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D11" t="n">
-        <v>456.9212185924396</v>
+        <v>170.0735135169495</v>
       </c>
       <c r="E11" t="n">
-        <v>22</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12">
@@ -640,16 +640,16 @@
         <v>1</v>
       </c>
       <c r="B12" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C12" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D12" t="n">
-        <v>264.7640458974745</v>
+        <v>159.0503065070923</v>
       </c>
       <c r="E12" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13">
@@ -657,16 +657,16 @@
         <v>1</v>
       </c>
       <c r="B13" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D13" t="n">
-        <v>264.7640458974745</v>
+        <v>159.0503065070923</v>
       </c>
       <c r="E13" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14">
@@ -674,16 +674,16 @@
         <v>1</v>
       </c>
       <c r="B14" t="n">
+        <v>10</v>
+      </c>
+      <c r="C14" t="n">
         <v>18</v>
       </c>
-      <c r="C14" t="n">
-        <v>19</v>
-      </c>
       <c r="D14" t="n">
-        <v>255.2273496316568</v>
+        <v>358.3085262730989</v>
       </c>
       <c r="E14" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15">
@@ -691,16 +691,16 @@
         <v>1</v>
       </c>
       <c r="B15" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C15" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D15" t="n">
-        <v>255.2273496316568</v>
+        <v>358.3085262730989</v>
       </c>
       <c r="E15" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16">
@@ -708,16 +708,16 @@
         <v>1</v>
       </c>
       <c r="B16" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C16" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D16" t="n">
-        <v>59.4810894318522</v>
+        <v>345.4287191303005</v>
       </c>
       <c r="E16" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17">
@@ -725,16 +725,16 @@
         <v>1</v>
       </c>
       <c r="B17" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C17" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D17" t="n">
-        <v>59.4810894318522</v>
+        <v>345.4287191303005</v>
       </c>
       <c r="E17" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18">
@@ -742,16 +742,16 @@
         <v>1</v>
       </c>
       <c r="B18" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C18" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D18" t="n">
-        <v>128.4133949399361</v>
+        <v>434.4605850937459</v>
       </c>
       <c r="E18" t="n">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19">
@@ -759,16 +759,16 @@
         <v>1</v>
       </c>
       <c r="B19" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C19" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
-        <v>128.4133949399361</v>
+        <v>434.4605850937459</v>
       </c>
       <c r="E19" t="n">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20">
@@ -776,16 +776,16 @@
         <v>1</v>
       </c>
       <c r="B20" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C20" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D20" t="n">
-        <v>160.3776792449623</v>
+        <v>325.5963759012068</v>
       </c>
       <c r="E20" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21">
@@ -793,16 +793,16 @@
         <v>1</v>
       </c>
       <c r="B21" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C21" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D21" t="n">
-        <v>160.3776792449623</v>
+        <v>325.5963759012068</v>
       </c>
       <c r="E21" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22">
@@ -810,16 +810,16 @@
         <v>1</v>
       </c>
       <c r="B22" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C22" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D22" t="n">
-        <v>123.664869708418</v>
+        <v>258.1046299468493</v>
       </c>
       <c r="E22" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23">
@@ -827,16 +827,16 @@
         <v>1</v>
       </c>
       <c r="B23" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C23" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D23" t="n">
-        <v>123.664869708418</v>
+        <v>258.1046299468493</v>
       </c>
       <c r="E23" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24">
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="B24" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C24" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D24" t="n">
-        <v>300.9601302498389</v>
+        <v>173.9942527786478</v>
       </c>
       <c r="E24" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25">
@@ -861,16 +861,16 @@
         <v>1</v>
       </c>
       <c r="B25" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D25" t="n">
-        <v>300.9601302498389</v>
+        <v>173.9942527786478</v>
       </c>
       <c r="E25" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26">
@@ -878,16 +878,16 @@
         <v>1</v>
       </c>
       <c r="B26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D26" t="n">
-        <v>78.77182237323191</v>
+        <v>237.9936973955403</v>
       </c>
       <c r="E26" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27">
@@ -895,16 +895,16 @@
         <v>1</v>
       </c>
       <c r="B27" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
-        <v>78.77182237323191</v>
+        <v>237.9936973955403</v>
       </c>
       <c r="E27" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28">
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="B28" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C28" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="n">
-        <v>107.5406899736095</v>
+        <v>196.4510117052086</v>
       </c>
       <c r="E28" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29">
@@ -929,16 +929,16 @@
         <v>1</v>
       </c>
       <c r="B29" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
-        <v>107.5406899736095</v>
+        <v>196.4510117052086</v>
       </c>
       <c r="E29" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30">
@@ -946,16 +946,16 @@
         <v>1</v>
       </c>
       <c r="B30" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="D30" t="n">
-        <v>397.7750620639761</v>
+        <v>305.0049179931366</v>
       </c>
       <c r="E30" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31">
@@ -963,16 +963,16 @@
         <v>1</v>
       </c>
       <c r="B31" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D31" t="n">
-        <v>397.7750620639761</v>
+        <v>305.0049179931366</v>
       </c>
       <c r="E31" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32">
@@ -980,16 +980,16 @@
         <v>1</v>
       </c>
       <c r="B32" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="D32" t="n">
-        <v>197.9898987322333</v>
+        <v>146.0308186651023</v>
       </c>
       <c r="E32" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33">
@@ -997,16 +997,16 @@
         <v>1</v>
       </c>
       <c r="B33" t="n">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D33" t="n">
-        <v>197.9898987322333</v>
+        <v>146.0308186651023</v>
       </c>
       <c r="E33" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34">
@@ -1017,13 +1017,13 @@
         <v>10</v>
       </c>
       <c r="C34" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D34" t="n">
-        <v>366.1652632350589</v>
+        <v>295.629836112663</v>
       </c>
       <c r="E34" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35">
@@ -1031,16 +1031,16 @@
         <v>1</v>
       </c>
       <c r="B35" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C35" t="n">
         <v>10</v>
       </c>
       <c r="D35" t="n">
-        <v>366.1652632350589</v>
+        <v>295.629836112663</v>
       </c>
       <c r="E35" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36">
@@ -1048,13 +1048,13 @@
         <v>1</v>
       </c>
       <c r="B36" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C36" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D36" t="n">
-        <v>68.42514157822401</v>
+        <v>94.42986815621421</v>
       </c>
       <c r="E36" t="n">
         <v>7</v>
@@ -1065,13 +1065,13 @@
         <v>1</v>
       </c>
       <c r="B37" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C37" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D37" t="n">
-        <v>68.42514157822401</v>
+        <v>94.42986815621421</v>
       </c>
       <c r="E37" t="n">
         <v>7</v>
@@ -1082,16 +1082,16 @@
         <v>1</v>
       </c>
       <c r="B38" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D38" t="n">
-        <v>731.464968402452</v>
+        <v>94.04786015641186</v>
       </c>
       <c r="E38" t="n">
-        <v>22</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39">
@@ -1099,16 +1099,16 @@
         <v>1</v>
       </c>
       <c r="B39" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C39" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
-        <v>731.464968402452</v>
+        <v>94.04786015641186</v>
       </c>
       <c r="E39" t="n">
-        <v>22</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40">
@@ -1116,16 +1116,16 @@
         <v>1</v>
       </c>
       <c r="B40" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C40" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D40" t="n">
-        <v>355.7878581402126</v>
+        <v>367.3935219897052</v>
       </c>
       <c r="E40" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="41">
@@ -1133,16 +1133,16 @@
         <v>1</v>
       </c>
       <c r="B41" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
-        <v>355.7878581402126</v>
+        <v>367.3935219897052</v>
       </c>
       <c r="E41" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="42">
@@ -1150,16 +1150,16 @@
         <v>1</v>
       </c>
       <c r="B42" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C42" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D42" t="n">
-        <v>98.79271228182775</v>
+        <v>296.6496249786944</v>
       </c>
       <c r="E42" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43">
@@ -1167,16 +1167,16 @@
         <v>1</v>
       </c>
       <c r="B43" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D43" t="n">
-        <v>98.79271228182775</v>
+        <v>296.6496249786944</v>
       </c>
       <c r="E43" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44">
@@ -1184,16 +1184,16 @@
         <v>1</v>
       </c>
       <c r="B44" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C44" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D44" t="n">
-        <v>112.6987133910587</v>
+        <v>84.89994110716449</v>
       </c>
       <c r="E44" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="45">
@@ -1201,16 +1201,16 @@
         <v>1</v>
       </c>
       <c r="B45" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C45" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D45" t="n">
-        <v>112.6987133910587</v>
+        <v>84.89994110716449</v>
       </c>
       <c r="E45" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="46">
@@ -1218,16 +1218,16 @@
         <v>1</v>
       </c>
       <c r="B46" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C46" t="n">
+        <v>11</v>
+      </c>
+      <c r="D46" t="n">
+        <v>247.8911051248108</v>
+      </c>
+      <c r="E46" t="n">
         <v>14</v>
-      </c>
-      <c r="D46" t="n">
-        <v>224.8288237748888</v>
-      </c>
-      <c r="E46" t="n">
-        <v>6</v>
       </c>
     </row>
     <row r="47">
@@ -1235,16 +1235,16 @@
         <v>1</v>
       </c>
       <c r="B47" t="n">
+        <v>11</v>
+      </c>
+      <c r="C47" t="n">
+        <v>5</v>
+      </c>
+      <c r="D47" t="n">
+        <v>247.8911051248108</v>
+      </c>
+      <c r="E47" t="n">
         <v>14</v>
-      </c>
-      <c r="C47" t="n">
-        <v>7</v>
-      </c>
-      <c r="D47" t="n">
-        <v>224.8288237748888</v>
-      </c>
-      <c r="E47" t="n">
-        <v>6</v>
       </c>
     </row>
     <row r="48">
@@ -1252,16 +1252,16 @@
         <v>1</v>
       </c>
       <c r="B48" t="n">
+        <v>6</v>
+      </c>
+      <c r="C48" t="n">
+        <v>12</v>
+      </c>
+      <c r="D48" t="n">
+        <v>246.0589360295618</v>
+      </c>
+      <c r="E48" t="n">
         <v>7</v>
-      </c>
-      <c r="C48" t="n">
-        <v>17</v>
-      </c>
-      <c r="D48" t="n">
-        <v>289.0847626562147</v>
-      </c>
-      <c r="E48" t="n">
-        <v>10</v>
       </c>
     </row>
     <row r="49">
@@ -1269,16 +1269,16 @@
         <v>1</v>
       </c>
       <c r="B49" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C49" t="n">
+        <v>6</v>
+      </c>
+      <c r="D49" t="n">
+        <v>246.0589360295618</v>
+      </c>
+      <c r="E49" t="n">
         <v>7</v>
-      </c>
-      <c r="D49" t="n">
-        <v>289.0847626562147</v>
-      </c>
-      <c r="E49" t="n">
-        <v>10</v>
       </c>
     </row>
     <row r="50">
@@ -1286,16 +1286,16 @@
         <v>1</v>
       </c>
       <c r="B50" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C50" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D50" t="n">
-        <v>462.7148149778652</v>
+        <v>151.251446274077</v>
       </c>
       <c r="E50" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51">
@@ -1303,16 +1303,16 @@
         <v>1</v>
       </c>
       <c r="B51" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D51" t="n">
-        <v>462.7148149778652</v>
+        <v>151.251446274077</v>
       </c>
       <c r="E51" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52">
@@ -1320,16 +1320,16 @@
         <v>1</v>
       </c>
       <c r="B52" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C52" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D52" t="n">
-        <v>537.5816217096711</v>
+        <v>274.6434051638597</v>
       </c>
       <c r="E52" t="n">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="53">
@@ -1337,16 +1337,16 @@
         <v>1</v>
       </c>
       <c r="B53" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D53" t="n">
-        <v>537.5816217096711</v>
+        <v>274.6434051638597</v>
       </c>
       <c r="E53" t="n">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="54">
@@ -1354,16 +1354,16 @@
         <v>1</v>
       </c>
       <c r="B54" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C54" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D54" t="n">
-        <v>180.5685465411958</v>
+        <v>278.2175407841856</v>
       </c>
       <c r="E54" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55">
@@ -1371,16 +1371,16 @@
         <v>1</v>
       </c>
       <c r="B55" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C55" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
-        <v>180.5685465411958</v>
+        <v>278.2175407841856</v>
       </c>
       <c r="E55" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56">
@@ -1388,16 +1388,16 @@
         <v>1</v>
       </c>
       <c r="B56" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="D56" t="n">
-        <v>144.8067677976413</v>
+        <v>177.282260815909</v>
       </c>
       <c r="E56" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="57">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="B57" t="n">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="C57" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D57" t="n">
-        <v>144.8067677976413</v>
+        <v>177.282260815909</v>
       </c>
       <c r="E57" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="58">
@@ -1422,16 +1422,16 @@
         <v>1</v>
       </c>
       <c r="B58" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C58" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D58" t="n">
-        <v>222.0495440211486</v>
+        <v>132.9661611087573</v>
       </c>
       <c r="E58" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="59">
@@ -1439,16 +1439,16 @@
         <v>1</v>
       </c>
       <c r="B59" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C59" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
-        <v>222.0495440211486</v>
+        <v>132.9661611087573</v>
       </c>
       <c r="E59" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="60">
@@ -1456,16 +1456,16 @@
         <v>1</v>
       </c>
       <c r="B60" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C60" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D60" t="n">
-        <v>106.5082156455548</v>
+        <v>133.4541119636259</v>
       </c>
       <c r="E60" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="61">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="B61" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C61" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D61" t="n">
-        <v>106.5082156455548</v>
+        <v>133.4541119636259</v>
       </c>
       <c r="E61" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="62">
@@ -1493,13 +1493,13 @@
         <v>2</v>
       </c>
       <c r="C62" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D62" t="n">
-        <v>254.2439773131313</v>
+        <v>157.9430277030297</v>
       </c>
       <c r="E62" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="63">
@@ -1507,50 +1507,50 @@
         <v>1</v>
       </c>
       <c r="B63" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C63" t="n">
         <v>2</v>
       </c>
       <c r="D63" t="n">
-        <v>254.2439773131313</v>
+        <v>157.9430277030297</v>
       </c>
       <c r="E63" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B64" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C64" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D64" t="n">
-        <v>291.4326680384339</v>
+        <v>212.1508896988179</v>
       </c>
       <c r="E64" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B65" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C65" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D65" t="n">
-        <v>291.4326680384339</v>
+        <v>212.1508896988179</v>
       </c>
       <c r="E65" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66">
@@ -1558,16 +1558,16 @@
         <v>2</v>
       </c>
       <c r="B66" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C66" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D66" t="n">
-        <v>288.2256060796819</v>
+        <v>347.9669524538214</v>
       </c>
       <c r="E66" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="67">
@@ -1575,16 +1575,16 @@
         <v>2</v>
       </c>
       <c r="B67" t="n">
+        <v>14</v>
+      </c>
+      <c r="C67" t="n">
         <v>13</v>
       </c>
-      <c r="C67" t="n">
-        <v>7</v>
-      </c>
       <c r="D67" t="n">
-        <v>288.2256060796819</v>
+        <v>347.9669524538214</v>
       </c>
       <c r="E67" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="68">
@@ -1592,16 +1592,16 @@
         <v>2</v>
       </c>
       <c r="B68" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C68" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
-        <v>176.1391495380854</v>
+        <v>134.2013412749664</v>
       </c>
       <c r="E68" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="69">
@@ -1609,16 +1609,16 @@
         <v>2</v>
       </c>
       <c r="B69" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="C69" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D69" t="n">
-        <v>176.1391495380854</v>
+        <v>134.2013412749664</v>
       </c>
       <c r="E69" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="70">
@@ -1626,16 +1626,16 @@
         <v>2</v>
       </c>
       <c r="B70" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C70" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D70" t="n">
-        <v>903.7173230607013</v>
+        <v>182.4088813627231</v>
       </c>
       <c r="E70" t="n">
-        <v>24</v>
+        <v>11</v>
       </c>
     </row>
     <row r="71">
@@ -1643,16 +1643,16 @@
         <v>2</v>
       </c>
       <c r="B71" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D71" t="n">
-        <v>903.7173230607013</v>
+        <v>182.4088813627231</v>
       </c>
       <c r="E71" t="n">
-        <v>24</v>
+        <v>11</v>
       </c>
     </row>
     <row r="72">
@@ -1660,16 +1660,16 @@
         <v>2</v>
       </c>
       <c r="B72" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C72" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D72" t="n">
-        <v>89.00561780022652</v>
+        <v>170.0735135169495</v>
       </c>
       <c r="E72" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="73">
@@ -1677,16 +1677,16 @@
         <v>2</v>
       </c>
       <c r="B73" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D73" t="n">
-        <v>89.00561780022652</v>
+        <v>170.0735135169495</v>
       </c>
       <c r="E73" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="74">
@@ -1694,16 +1694,16 @@
         <v>2</v>
       </c>
       <c r="B74" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C74" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D74" t="n">
-        <v>456.9212185924396</v>
+        <v>159.0503065070923</v>
       </c>
       <c r="E74" t="n">
-        <v>24</v>
+        <v>8</v>
       </c>
     </row>
     <row r="75">
@@ -1711,16 +1711,16 @@
         <v>2</v>
       </c>
       <c r="B75" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D75" t="n">
-        <v>456.9212185924396</v>
+        <v>159.0503065070923</v>
       </c>
       <c r="E75" t="n">
-        <v>24</v>
+        <v>8</v>
       </c>
     </row>
     <row r="76">
@@ -1728,16 +1728,16 @@
         <v>2</v>
       </c>
       <c r="B76" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C76" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="D76" t="n">
-        <v>264.7640458974745</v>
+        <v>358.3085262730989</v>
       </c>
       <c r="E76" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="77">
@@ -1745,16 +1745,16 @@
         <v>2</v>
       </c>
       <c r="B77" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D77" t="n">
-        <v>264.7640458974745</v>
+        <v>358.3085262730989</v>
       </c>
       <c r="E77" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="78">
@@ -1762,16 +1762,16 @@
         <v>2</v>
       </c>
       <c r="B78" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C78" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D78" t="n">
-        <v>255.2273496316568</v>
+        <v>345.4287191303005</v>
       </c>
       <c r="E78" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="79">
@@ -1779,16 +1779,16 @@
         <v>2</v>
       </c>
       <c r="B79" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C79" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D79" t="n">
-        <v>255.2273496316568</v>
+        <v>345.4287191303005</v>
       </c>
       <c r="E79" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="80">
@@ -1796,16 +1796,16 @@
         <v>2</v>
       </c>
       <c r="B80" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C80" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D80" t="n">
-        <v>59.4810894318522</v>
+        <v>434.4605850937459</v>
       </c>
       <c r="E80" t="n">
-        <v>6</v>
+        <v>21</v>
       </c>
     </row>
     <row r="81">
@@ -1813,16 +1813,16 @@
         <v>2</v>
       </c>
       <c r="B81" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C81" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
-        <v>59.4810894318522</v>
+        <v>434.4605850937459</v>
       </c>
       <c r="E81" t="n">
-        <v>6</v>
+        <v>21</v>
       </c>
     </row>
     <row r="82">
@@ -1830,16 +1830,16 @@
         <v>2</v>
       </c>
       <c r="B82" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C82" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D82" t="n">
-        <v>128.4133949399361</v>
+        <v>325.5963759012068</v>
       </c>
       <c r="E82" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="83">
@@ -1847,16 +1847,16 @@
         <v>2</v>
       </c>
       <c r="B83" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C83" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D83" t="n">
-        <v>128.4133949399361</v>
+        <v>325.5963759012068</v>
       </c>
       <c r="E83" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="84">
@@ -1864,16 +1864,16 @@
         <v>2</v>
       </c>
       <c r="B84" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C84" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D84" t="n">
-        <v>160.3776792449623</v>
+        <v>258.1046299468493</v>
       </c>
       <c r="E84" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="85">
@@ -1881,16 +1881,16 @@
         <v>2</v>
       </c>
       <c r="B85" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C85" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D85" t="n">
-        <v>160.3776792449623</v>
+        <v>258.1046299468493</v>
       </c>
       <c r="E85" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="86">
@@ -1898,16 +1898,16 @@
         <v>2</v>
       </c>
       <c r="B86" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D86" t="n">
-        <v>123.664869708418</v>
+        <v>173.9942527786478</v>
       </c>
       <c r="E86" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="87">
@@ -1915,16 +1915,16 @@
         <v>2</v>
       </c>
       <c r="B87" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C87" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D87" t="n">
-        <v>123.664869708418</v>
+        <v>173.9942527786478</v>
       </c>
       <c r="E87" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="88">
@@ -1935,13 +1935,13 @@
         <v>5</v>
       </c>
       <c r="C88" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D88" t="n">
-        <v>300.9601302498389</v>
+        <v>237.9936973955403</v>
       </c>
       <c r="E88" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89">
@@ -1949,16 +1949,16 @@
         <v>2</v>
       </c>
       <c r="B89" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C89" t="n">
         <v>5</v>
       </c>
       <c r="D89" t="n">
-        <v>300.9601302498389</v>
+        <v>237.9936973955403</v>
       </c>
       <c r="E89" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90">
@@ -1966,16 +1966,16 @@
         <v>2</v>
       </c>
       <c r="B90" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C90" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D90" t="n">
-        <v>78.77182237323191</v>
+        <v>196.4510117052086</v>
       </c>
       <c r="E90" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="91">
@@ -1983,16 +1983,16 @@
         <v>2</v>
       </c>
       <c r="B91" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
-        <v>78.77182237323191</v>
+        <v>196.4510117052086</v>
       </c>
       <c r="E91" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="92">
@@ -2000,16 +2000,16 @@
         <v>2</v>
       </c>
       <c r="B92" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C92" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D92" t="n">
-        <v>107.5406899736095</v>
+        <v>305.0049179931366</v>
       </c>
       <c r="E92" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="93">
@@ -2017,16 +2017,16 @@
         <v>2</v>
       </c>
       <c r="B93" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C93" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D93" t="n">
-        <v>107.5406899736095</v>
+        <v>305.0049179931366</v>
       </c>
       <c r="E93" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="94">
@@ -2034,16 +2034,16 @@
         <v>2</v>
       </c>
       <c r="B94" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D94" t="n">
-        <v>397.7750620639761</v>
+        <v>146.0308186651023</v>
       </c>
       <c r="E94" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="95">
@@ -2051,16 +2051,16 @@
         <v>2</v>
       </c>
       <c r="B95" t="n">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D95" t="n">
-        <v>397.7750620639761</v>
+        <v>146.0308186651023</v>
       </c>
       <c r="E95" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="96">
@@ -2068,16 +2068,16 @@
         <v>2</v>
       </c>
       <c r="B96" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="D96" t="n">
-        <v>197.9898987322333</v>
+        <v>295.629836112663</v>
       </c>
       <c r="E96" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="97">
@@ -2085,16 +2085,16 @@
         <v>2</v>
       </c>
       <c r="B97" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D97" t="n">
-        <v>197.9898987322333</v>
+        <v>295.629836112663</v>
       </c>
       <c r="E97" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="98">
@@ -2102,13 +2102,13 @@
         <v>2</v>
       </c>
       <c r="B98" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C98" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D98" t="n">
-        <v>366.1652632350589</v>
+        <v>94.42986815621421</v>
       </c>
       <c r="E98" t="n">
         <v>5</v>
@@ -2119,13 +2119,13 @@
         <v>2</v>
       </c>
       <c r="B99" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C99" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D99" t="n">
-        <v>366.1652632350589</v>
+        <v>94.42986815621421</v>
       </c>
       <c r="E99" t="n">
         <v>5</v>
@@ -2136,16 +2136,16 @@
         <v>2</v>
       </c>
       <c r="B100" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C100" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D100" t="n">
-        <v>68.42514157822401</v>
+        <v>94.04786015641186</v>
       </c>
       <c r="E100" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="101">
@@ -2153,16 +2153,16 @@
         <v>2</v>
       </c>
       <c r="B101" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C101" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
-        <v>68.42514157822401</v>
+        <v>94.04786015641186</v>
       </c>
       <c r="E101" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="102">
@@ -2170,16 +2170,16 @@
         <v>2</v>
       </c>
       <c r="B102" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C102" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D102" t="n">
-        <v>731.464968402452</v>
+        <v>367.3935219897052</v>
       </c>
       <c r="E102" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="103">
@@ -2187,16 +2187,16 @@
         <v>2</v>
       </c>
       <c r="B103" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C103" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D103" t="n">
-        <v>731.464968402452</v>
+        <v>367.3935219897052</v>
       </c>
       <c r="E103" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="104">
@@ -2204,16 +2204,16 @@
         <v>2</v>
       </c>
       <c r="B104" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C104" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D104" t="n">
-        <v>355.7878581402126</v>
+        <v>296.6496249786944</v>
       </c>
       <c r="E104" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="105">
@@ -2221,16 +2221,16 @@
         <v>2</v>
       </c>
       <c r="B105" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C105" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D105" t="n">
-        <v>355.7878581402126</v>
+        <v>296.6496249786944</v>
       </c>
       <c r="E105" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="106">
@@ -2238,16 +2238,16 @@
         <v>2</v>
       </c>
       <c r="B106" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C106" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D106" t="n">
-        <v>98.79271228182775</v>
+        <v>84.89994110716449</v>
       </c>
       <c r="E106" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="107">
@@ -2255,16 +2255,16 @@
         <v>2</v>
       </c>
       <c r="B107" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C107" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D107" t="n">
-        <v>98.79271228182775</v>
+        <v>84.89994110716449</v>
       </c>
       <c r="E107" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="108">
@@ -2272,16 +2272,16 @@
         <v>2</v>
       </c>
       <c r="B108" t="n">
+        <v>5</v>
+      </c>
+      <c r="C108" t="n">
+        <v>11</v>
+      </c>
+      <c r="D108" t="n">
+        <v>247.8911051248108</v>
+      </c>
+      <c r="E108" t="n">
         <v>14</v>
-      </c>
-      <c r="C108" t="n">
-        <v>20</v>
-      </c>
-      <c r="D108" t="n">
-        <v>112.6987133910587</v>
-      </c>
-      <c r="E108" t="n">
-        <v>10</v>
       </c>
     </row>
     <row r="109">
@@ -2289,16 +2289,16 @@
         <v>2</v>
       </c>
       <c r="B109" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C109" t="n">
+        <v>5</v>
+      </c>
+      <c r="D109" t="n">
+        <v>247.8911051248108</v>
+      </c>
+      <c r="E109" t="n">
         <v>14</v>
-      </c>
-      <c r="D109" t="n">
-        <v>112.6987133910587</v>
-      </c>
-      <c r="E109" t="n">
-        <v>10</v>
       </c>
     </row>
     <row r="110">
@@ -2306,16 +2306,16 @@
         <v>2</v>
       </c>
       <c r="B110" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C110" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D110" t="n">
-        <v>224.8288237748888</v>
+        <v>246.0589360295618</v>
       </c>
       <c r="E110" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="111">
@@ -2323,16 +2323,16 @@
         <v>2</v>
       </c>
       <c r="B111" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C111" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D111" t="n">
-        <v>224.8288237748888</v>
+        <v>246.0589360295618</v>
       </c>
       <c r="E111" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="112">
@@ -2340,16 +2340,16 @@
         <v>2</v>
       </c>
       <c r="B112" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C112" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D112" t="n">
-        <v>289.0847626562147</v>
+        <v>151.251446274077</v>
       </c>
       <c r="E112" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="113">
@@ -2357,16 +2357,16 @@
         <v>2</v>
       </c>
       <c r="B113" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C113" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D113" t="n">
-        <v>289.0847626562147</v>
+        <v>151.251446274077</v>
       </c>
       <c r="E113" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="114">
@@ -2374,16 +2374,16 @@
         <v>2</v>
       </c>
       <c r="B114" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C114" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D114" t="n">
-        <v>462.7148149778652</v>
+        <v>274.6434051638597</v>
       </c>
       <c r="E114" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="115">
@@ -2391,16 +2391,16 @@
         <v>2</v>
       </c>
       <c r="B115" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C115" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D115" t="n">
-        <v>462.7148149778652</v>
+        <v>274.6434051638597</v>
       </c>
       <c r="E115" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="116">
@@ -2408,16 +2408,16 @@
         <v>2</v>
       </c>
       <c r="B116" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C116" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D116" t="n">
-        <v>537.5816217096711</v>
+        <v>278.2175407841856</v>
       </c>
       <c r="E116" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="117">
@@ -2425,16 +2425,16 @@
         <v>2</v>
       </c>
       <c r="B117" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C117" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D117" t="n">
-        <v>537.5816217096711</v>
+        <v>278.2175407841856</v>
       </c>
       <c r="E117" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="118">
@@ -2442,16 +2442,16 @@
         <v>2</v>
       </c>
       <c r="B118" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C118" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D118" t="n">
-        <v>180.5685465411958</v>
+        <v>177.282260815909</v>
       </c>
       <c r="E118" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="119">
@@ -2459,16 +2459,16 @@
         <v>2</v>
       </c>
       <c r="B119" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C119" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D119" t="n">
-        <v>180.5685465411958</v>
+        <v>177.282260815909</v>
       </c>
       <c r="E119" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="120">
@@ -2476,16 +2476,16 @@
         <v>2</v>
       </c>
       <c r="B120" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C120" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D120" t="n">
-        <v>144.8067677976413</v>
+        <v>132.9661611087573</v>
       </c>
       <c r="E120" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="121">
@@ -2493,16 +2493,16 @@
         <v>2</v>
       </c>
       <c r="B121" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C121" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D121" t="n">
-        <v>144.8067677976413</v>
+        <v>132.9661611087573</v>
       </c>
       <c r="E121" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="122">
@@ -2510,16 +2510,16 @@
         <v>2</v>
       </c>
       <c r="B122" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C122" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D122" t="n">
-        <v>222.0495440211486</v>
+        <v>133.4541119636259</v>
       </c>
       <c r="E122" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="123">
@@ -2527,16 +2527,16 @@
         <v>2</v>
       </c>
       <c r="B123" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C123" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D123" t="n">
-        <v>222.0495440211486</v>
+        <v>133.4541119636259</v>
       </c>
       <c r="E123" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="124">
@@ -2544,13 +2544,13 @@
         <v>2</v>
       </c>
       <c r="B124" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C124" t="n">
         <v>20</v>
       </c>
       <c r="D124" t="n">
-        <v>106.5082156455548</v>
+        <v>157.9430277030297</v>
       </c>
       <c r="E124" t="n">
         <v>12</v>
@@ -2564,81 +2564,13 @@
         <v>20</v>
       </c>
       <c r="C125" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D125" t="n">
-        <v>106.5082156455548</v>
+        <v>157.9430277030297</v>
       </c>
       <c r="E125" t="n">
         <v>12</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="n">
-        <v>2</v>
-      </c>
-      <c r="B126" t="n">
-        <v>2</v>
-      </c>
-      <c r="C126" t="n">
-        <v>14</v>
-      </c>
-      <c r="D126" t="n">
-        <v>254.2439773131313</v>
-      </c>
-      <c r="E126" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="n">
-        <v>2</v>
-      </c>
-      <c r="B127" t="n">
-        <v>14</v>
-      </c>
-      <c r="C127" t="n">
-        <v>2</v>
-      </c>
-      <c r="D127" t="n">
-        <v>254.2439773131313</v>
-      </c>
-      <c r="E127" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="n">
-        <v>2</v>
-      </c>
-      <c r="B128" t="n">
-        <v>12</v>
-      </c>
-      <c r="C128" t="n">
-        <v>19</v>
-      </c>
-      <c r="D128" t="n">
-        <v>291.4326680384339</v>
-      </c>
-      <c r="E128" t="n">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="n">
-        <v>2</v>
-      </c>
-      <c r="B129" t="n">
-        <v>19</v>
-      </c>
-      <c r="C129" t="n">
-        <v>12</v>
-      </c>
-      <c r="D129" t="n">
-        <v>291.4326680384339</v>
-      </c>
-      <c r="E129" t="n">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -2689,316 +2621,316 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1069</v>
+        <v>923</v>
       </c>
       <c r="B2" t="n">
-        <v>424</v>
+        <v>447</v>
       </c>
       <c r="C2" t="n">
         <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>621</v>
+        <v>930</v>
       </c>
       <c r="B3" t="n">
-        <v>374</v>
+        <v>42</v>
       </c>
       <c r="C3" t="n">
         <v>15</v>
       </c>
       <c r="D3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E3" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>593</v>
+        <v>1052</v>
       </c>
       <c r="B4" t="n">
-        <v>178</v>
+        <v>484</v>
       </c>
       <c r="C4" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D4" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E4" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1106</v>
+        <v>707</v>
       </c>
       <c r="B5" t="n">
-        <v>284</v>
+        <v>102</v>
       </c>
       <c r="C5" t="n">
         <v>15</v>
       </c>
       <c r="D5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E5" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>225</v>
+        <v>649</v>
       </c>
       <c r="B6" t="n">
-        <v>27</v>
+        <v>85</v>
       </c>
       <c r="C6" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E6" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>509</v>
+        <v>514</v>
       </c>
       <c r="B7" t="n">
-        <v>393</v>
+        <v>281</v>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D7" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E7" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>859</v>
+        <v>1016</v>
       </c>
       <c r="B8" t="n">
-        <v>258</v>
+        <v>356</v>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D8" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E8" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1027</v>
+        <v>994</v>
       </c>
       <c r="B9" t="n">
-        <v>325</v>
+        <v>274</v>
       </c>
       <c r="C9" t="n">
         <v>15</v>
       </c>
       <c r="D9" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>822</v>
+        <v>837</v>
       </c>
       <c r="B10" t="n">
-        <v>140</v>
+        <v>28</v>
       </c>
       <c r="C10" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E10" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1128</v>
+        <v>774</v>
       </c>
       <c r="B11" t="n">
-        <v>63</v>
+        <v>473</v>
       </c>
       <c r="C11" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>286</v>
+        <v>406</v>
       </c>
       <c r="B12" t="n">
-        <v>201</v>
+        <v>134</v>
       </c>
       <c r="C12" t="n">
         <v>5</v>
       </c>
       <c r="D12" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E12" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>309</v>
+        <v>618</v>
       </c>
       <c r="B13" t="n">
-        <v>545</v>
+        <v>504</v>
       </c>
       <c r="C13" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D13" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E13" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1144</v>
+        <v>345</v>
       </c>
       <c r="B14" t="n">
-        <v>215</v>
+        <v>474</v>
       </c>
       <c r="C14" t="n">
         <v>5</v>
       </c>
       <c r="D14" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E14" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>677</v>
+        <v>36</v>
       </c>
       <c r="B15" t="n">
-        <v>126</v>
+        <v>314</v>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D15" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E15" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>141</v>
+        <v>123</v>
       </c>
       <c r="B16" t="n">
-        <v>316</v>
+        <v>71</v>
       </c>
       <c r="C16" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E16" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>839</v>
+        <v>113</v>
       </c>
       <c r="B17" t="n">
-        <v>83</v>
+        <v>276</v>
       </c>
       <c r="C17" t="n">
         <v>5</v>
       </c>
       <c r="D17" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1038</v>
+        <v>663</v>
       </c>
       <c r="B18" t="n">
-        <v>485</v>
+        <v>199</v>
       </c>
       <c r="C18" t="n">
         <v>10</v>
       </c>
       <c r="D18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E18" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>290</v>
+        <v>846</v>
       </c>
       <c r="B19" t="n">
-        <v>418</v>
+        <v>122</v>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D19" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E19" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>36</v>
+        <v>629</v>
       </c>
       <c r="B20" t="n">
-        <v>443</v>
+        <v>371</v>
       </c>
       <c r="C20" t="n">
         <v>15</v>
@@ -3007,24 +2939,24 @@
         <v>7</v>
       </c>
       <c r="E20" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>762</v>
+        <v>1069</v>
       </c>
       <c r="B21" t="n">
-        <v>52</v>
+        <v>117</v>
       </c>
       <c r="C21" t="n">
         <v>10</v>
       </c>
       <c r="D21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E21" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -3060,7 +2992,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
         <v>2</v>
@@ -3068,7 +3000,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
         <v>5</v>
@@ -3102,7 +3034,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -3147,7 +3079,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D65"/>
+  <dimension ref="A1:D67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3179,86 +3111,86 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C2" t="n">
-        <v>288.2256060796819</v>
+        <v>212.1508896988179</v>
       </c>
       <c r="D2" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="n">
-        <v>288.2256060796819</v>
+        <v>212.1508896988179</v>
       </c>
       <c r="D3" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C4" t="n">
-        <v>176.1391495380854</v>
+        <v>60.4400529450463</v>
       </c>
       <c r="D4" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>176.1391495380854</v>
+        <v>60.4400529450463</v>
       </c>
       <c r="D5" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B6" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C6" t="n">
-        <v>903.7173230607013</v>
+        <v>347.9669524538214</v>
       </c>
       <c r="D6" t="n">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B7" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C7" t="n">
-        <v>903.7173230607013</v>
+        <v>347.9669524538214</v>
       </c>
       <c r="D7" t="n">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8">
@@ -3266,27 +3198,27 @@
         <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C8" t="n">
-        <v>89.00561780022652</v>
+        <v>106.5129100156408</v>
       </c>
       <c r="D8" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B9" t="n">
         <v>4</v>
       </c>
       <c r="C9" t="n">
-        <v>89.00561780022652</v>
+        <v>106.5129100156408</v>
       </c>
       <c r="D9" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10">
@@ -3297,10 +3229,10 @@
         <v>11</v>
       </c>
       <c r="C10" t="n">
-        <v>294.2668856667362</v>
+        <v>182.4088813627231</v>
       </c>
       <c r="D10" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11">
@@ -3311,192 +3243,192 @@
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>294.2668856667362</v>
+        <v>182.4088813627231</v>
       </c>
       <c r="D11" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B12" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C12" t="n">
-        <v>456.9212185924396</v>
+        <v>170.0735135169495</v>
       </c>
       <c r="D12" t="n">
-        <v>37</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C13" t="n">
-        <v>456.9212185924396</v>
+        <v>170.0735135169495</v>
       </c>
       <c r="D13" t="n">
-        <v>37</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B14" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C14" t="n">
-        <v>264.7640458974745</v>
+        <v>159.0503065070923</v>
       </c>
       <c r="D14" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C15" t="n">
-        <v>264.7640458974745</v>
+        <v>159.0503065070923</v>
       </c>
       <c r="D15" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
+        <v>10</v>
+      </c>
+      <c r="B16" t="n">
         <v>18</v>
       </c>
-      <c r="B16" t="n">
-        <v>19</v>
-      </c>
       <c r="C16" t="n">
-        <v>255.2273496316568</v>
+        <v>358.3085262730989</v>
       </c>
       <c r="D16" t="n">
-        <v>22</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B17" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C17" t="n">
-        <v>255.2273496316568</v>
+        <v>358.3085262730989</v>
       </c>
       <c r="D17" t="n">
-        <v>22</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B18" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C18" t="n">
-        <v>230.826774876746</v>
+        <v>345.4287191303005</v>
       </c>
       <c r="D18" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B19" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C19" t="n">
-        <v>230.826774876746</v>
+        <v>345.4287191303005</v>
       </c>
       <c r="D19" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B20" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C20" t="n">
-        <v>128.4133949399361</v>
+        <v>434.4605850937459</v>
       </c>
       <c r="D20" t="n">
-        <v>19</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B21" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C21" t="n">
-        <v>128.4133949399361</v>
+        <v>434.4605850937459</v>
       </c>
       <c r="D21" t="n">
-        <v>19</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B22" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C22" t="n">
-        <v>160.3776792449623</v>
+        <v>325.5963759012068</v>
       </c>
       <c r="D22" t="n">
-        <v>17</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B23" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C23" t="n">
-        <v>160.3776792449623</v>
+        <v>325.5963759012068</v>
       </c>
       <c r="D23" t="n">
-        <v>17</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B24" t="n">
         <v>15</v>
       </c>
       <c r="C24" t="n">
-        <v>300.9601302498389</v>
+        <v>258.1046299468493</v>
       </c>
       <c r="D24" t="n">
-        <v>32</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25">
@@ -3504,167 +3436,167 @@
         <v>15</v>
       </c>
       <c r="B25" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C25" t="n">
-        <v>300.9601302498389</v>
+        <v>258.1046299468493</v>
       </c>
       <c r="D25" t="n">
-        <v>32</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B26" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C26" t="n">
-        <v>78.77182237323191</v>
+        <v>173.9942527786478</v>
       </c>
       <c r="D26" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B27" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C27" t="n">
-        <v>78.77182237323191</v>
+        <v>173.9942527786478</v>
       </c>
       <c r="D27" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B28" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C28" t="n">
-        <v>107.5406899736095</v>
+        <v>237.9936973955403</v>
       </c>
       <c r="D28" t="n">
-        <v>15</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B29" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C29" t="n">
-        <v>107.5406899736095</v>
+        <v>237.9936973955403</v>
       </c>
       <c r="D29" t="n">
-        <v>15</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B30" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C30" t="n">
-        <v>397.7750620639761</v>
+        <v>196.4510117052086</v>
       </c>
       <c r="D30" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B31" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>397.7750620639761</v>
+        <v>196.4510117052086</v>
       </c>
       <c r="D31" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B32" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C32" t="n">
-        <v>197.9898987322333</v>
+        <v>305.0049179931366</v>
       </c>
       <c r="D32" t="n">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B33" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="C33" t="n">
-        <v>197.9898987322333</v>
+        <v>305.0049179931366</v>
       </c>
       <c r="D33" t="n">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B34" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C34" t="n">
-        <v>366.1652632350589</v>
+        <v>146.0308186651023</v>
       </c>
       <c r="D34" t="n">
-        <v>31</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B35" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C35" t="n">
-        <v>366.1652632350589</v>
+        <v>146.0308186651023</v>
       </c>
       <c r="D35" t="n">
-        <v>31</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B36" t="n">
         <v>17</v>
       </c>
       <c r="C36" t="n">
-        <v>68.42514157822401</v>
+        <v>295.629836112663</v>
       </c>
       <c r="D36" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37">
@@ -3672,377 +3604,377 @@
         <v>17</v>
       </c>
       <c r="B37" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C37" t="n">
-        <v>68.42514157822401</v>
+        <v>295.629836112663</v>
       </c>
       <c r="D37" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B38" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C38" t="n">
-        <v>113.6001760562016</v>
+        <v>94.42986815621421</v>
       </c>
       <c r="D38" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B39" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C39" t="n">
-        <v>113.6001760562016</v>
+        <v>94.42986815621421</v>
       </c>
       <c r="D39" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B40" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C40" t="n">
-        <v>731.464968402452</v>
+        <v>94.04786015641186</v>
       </c>
       <c r="D40" t="n">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B41" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C41" t="n">
-        <v>731.464968402452</v>
+        <v>94.04786015641186</v>
       </c>
       <c r="D41" t="n">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B42" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C42" t="n">
-        <v>355.7878581402126</v>
+        <v>367.3935219897052</v>
       </c>
       <c r="D42" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C43" t="n">
-        <v>355.7878581402126</v>
+        <v>367.3935219897052</v>
       </c>
       <c r="D43" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B44" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C44" t="n">
-        <v>98.79271228182775</v>
+        <v>296.6496249786944</v>
       </c>
       <c r="D44" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B45" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C45" t="n">
-        <v>98.79271228182775</v>
+        <v>296.6496249786944</v>
       </c>
       <c r="D45" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B46" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C46" t="n">
-        <v>112.6987133910587</v>
+        <v>84.89994110716449</v>
       </c>
       <c r="D46" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B47" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C47" t="n">
-        <v>112.6987133910587</v>
+        <v>84.89994110716449</v>
       </c>
       <c r="D47" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B48" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C48" t="n">
-        <v>224.8288237748888</v>
+        <v>247.8911051248108</v>
       </c>
       <c r="D48" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B49" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C49" t="n">
-        <v>224.8288237748888</v>
+        <v>247.8911051248108</v>
       </c>
       <c r="D49" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B50" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C50" t="n">
-        <v>289.0847626562147</v>
+        <v>149.5860956105212</v>
       </c>
       <c r="D50" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B51" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C51" t="n">
-        <v>289.0847626562147</v>
+        <v>149.5860956105212</v>
       </c>
       <c r="D51" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B52" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C52" t="n">
-        <v>462.7148149778652</v>
+        <v>246.0589360295618</v>
       </c>
       <c r="D52" t="n">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B53" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C53" t="n">
-        <v>462.7148149778652</v>
+        <v>246.0589360295618</v>
       </c>
       <c r="D53" t="n">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B54" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C54" t="n">
-        <v>537.5816217096711</v>
+        <v>140.4314779527724</v>
       </c>
       <c r="D54" t="n">
-        <v>35</v>
+        <v>15</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B55" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C55" t="n">
-        <v>537.5816217096711</v>
+        <v>140.4314779527724</v>
       </c>
       <c r="D55" t="n">
-        <v>35</v>
+        <v>15</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B56" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C56" t="n">
-        <v>180.5685465411958</v>
+        <v>274.6434051638597</v>
       </c>
       <c r="D56" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B57" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C57" t="n">
-        <v>180.5685465411958</v>
+        <v>274.6434051638597</v>
       </c>
       <c r="D57" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B58" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C58" t="n">
-        <v>144.8067677976413</v>
+        <v>278.2175407841856</v>
       </c>
       <c r="D58" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B59" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C59" t="n">
-        <v>144.8067677976413</v>
+        <v>278.2175407841856</v>
       </c>
       <c r="D59" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B60" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C60" t="n">
-        <v>222.0495440211486</v>
+        <v>177.282260815909</v>
       </c>
       <c r="D60" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B61" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C61" t="n">
-        <v>222.0495440211486</v>
+        <v>177.282260815909</v>
       </c>
       <c r="D61" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B62" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C62" t="n">
-        <v>254.2439773131313</v>
+        <v>132.9661611087573</v>
       </c>
       <c r="D62" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B63" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C63" t="n">
-        <v>254.2439773131313</v>
+        <v>132.9661611087573</v>
       </c>
       <c r="D63" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="64">
@@ -4053,10 +3985,10 @@
         <v>19</v>
       </c>
       <c r="C64" t="n">
-        <v>291.4326680384339</v>
+        <v>133.4541119636259</v>
       </c>
       <c r="D64" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="65">
@@ -4067,10 +3999,38 @@
         <v>12</v>
       </c>
       <c r="C65" t="n">
-        <v>291.4326680384339</v>
+        <v>133.4541119636259</v>
       </c>
       <c r="D65" t="n">
-        <v>21</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>2</v>
+      </c>
+      <c r="B66" t="n">
+        <v>20</v>
+      </c>
+      <c r="C66" t="n">
+        <v>157.9430277030297</v>
+      </c>
+      <c r="D66" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>20</v>
+      </c>
+      <c r="B67" t="n">
+        <v>2</v>
+      </c>
+      <c r="C67" t="n">
+        <v>157.9430277030297</v>
+      </c>
+      <c r="D67" t="n">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
